--- a/PDF/SA15.xlsx
+++ b/PDF/SA15.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.3928"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18800" windowHeight="7430" firstSheet="2" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18800" windowHeight="7430" firstSheet="3" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Index" sheetId="1" r:id="rId4"/>
@@ -12,31 +12,21 @@
     <x:sheet name="cur_1_pow=1.00_it=1_276_6.csv" sheetId="3" r:id="rId6"/>
     <x:sheet name="cur_1_pow=1.00_it=1_276_6" sheetId="4" r:id="rId7"/>
     <x:sheet name="cur_1_pow=1.00_it=1_276_6_plot" sheetId="5" r:id="rId8"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_277_7.csv" sheetId="6" r:id="rId9"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_277_7" sheetId="7" r:id="rId10"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_277_8.csv" sheetId="8" r:id="rId11"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_277_8" sheetId="9" r:id="rId12"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_276_9.csv" sheetId="10" r:id="rId13"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_276_9" sheetId="11" r:id="rId14"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_276_10.csv" sheetId="12" r:id="rId15"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_276_10" sheetId="13" r:id="rId16"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_277_11.csv" sheetId="14" r:id="rId17"/>
-    <x:sheet name="cur_1_pow=1.00_it=1_277_11" sheetId="15" r:id="rId18"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="4294967295"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="71">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="66">
   <x:si>
-    <x:t>Description</x:t>
+    <x:t>min</x:t>
   </x:si>
   <x:si>
-    <x:t>Iteration</x:t>
+    <x:t>max</x:t>
   </x:si>
   <x:si>
-    <x:t>Test Name</x:t>
+    <x:t>Up</x:t>
   </x:si>
   <x:si>
     <x:t>Power Level</x:t>
@@ -45,25 +35,25 @@
     <x:t>AC_VRMS_2</x:t>
   </x:si>
   <x:si>
-    <x:t>AC_VRMS_1</x:t>
+    <x:t>AC_IRMS_1</x:t>
   </x:si>
   <x:si>
-    <x:t>AC_IRMS_2</x:t>
+    <x:t>AC_FREQ_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>volt_set</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iteration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V_Step_Down</x:t>
   </x:si>
   <x:si>
     <x:t>AC_VRMS_3</x:t>
   </x:si>
   <x:si>
-    <x:t>AC_IRMS_1</x:t>
-  </x:si>
-  <x:si>
     <x:t>AC_FREQ_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_FREQ_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V_Step_Down</x:t>
   </x:si>
   <x:si>
     <x:t>P_max_pct</x:t>
@@ -72,7 +62,16 @@
     <x:t>AC_IRMS_3</x:t>
   </x:si>
   <x:si>
-    <x:t>volt_set</x:t>
+    <x:t>Test Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_VRMS_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_IRMS_2</x:t>
   </x:si>
   <x:si>
     <x:t>AC_FREQ_3</x:t>
@@ -84,10 +83,10 @@
     <x:t>V_Step_Up</x:t>
   </x:si>
   <x:si>
-    <x:t>Up</x:t>
+    <x:t>result_summary.csv</x:t>
   </x:si>
   <x:si>
-    <x:t>result_summary.csv</x:t>
+    <x:t>cur_1_pow=1.00_it=1_277_2.csv</x:t>
   </x:si>
   <x:si>
     <x:t>cur_1_pow=1.00_it=1_277_1.csv</x:t>
@@ -96,28 +95,22 @@
     <x:t>cur_1_pow=1.00_it=1_277_4.csv</x:t>
   </x:si>
   <x:si>
-    <x:t>cur_1_pow=1.00_it=1_277_2.csv</x:t>
-  </x:si>
-  <x:si>
     <x:t>cur_1_pow=1.00_it=1_276_5.csv</x:t>
   </x:si>
   <x:si>
     <x:t>cur_1_pow=1.00_it=1_277_0.csv</x:t>
   </x:si>
   <x:si>
-    <x:t>cur_1_pow=1.00_it=1_277_3.csv</x:t>
-  </x:si>
-  <x:si>
     <x:t>cur_1_pow=1.00_it=1_276_6.csv</x:t>
   </x:si>
   <x:si>
-    <x:t>cur_1_pow=1.00_it=1_277_11.csv</x:t>
+    <x:t>cur_1_pow=1.00_it=1_277_3.csv</x:t>
   </x:si>
   <x:si>
     <x:t>cur_1_pow=1.00_it=1_277_7.csv</x:t>
   </x:si>
   <x:si>
-    <x:t>cur_1_pow=1.00_it=1_276_9.csv</x:t>
+    <x:t>cur_1_pow=1.00_it=1_277_11.csv</x:t>
   </x:si>
   <x:si>
     <x:t>cur_1_pow=1.00_it=1_276_10.csv</x:t>
@@ -126,100 +119,7 @@
     <x:t>cur_1_pow=1.00_it=1_277_8.csv</x:t>
   </x:si>
   <x:si>
-    <x:t>AC_S_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DC_I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Volt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>P_min</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_Q_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>File</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_P_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_Q_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Power</x:t>
-  </x:si>
-  <x:si>
-    <x:t>P_max</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_PF_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_P_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_S_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_P_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_S_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_PF_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_Q_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Notes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AC_PF_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DC_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DC_P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cur_1_pow=1.00_it=1_277_11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cur_1_pow=1.00_it=1_277_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cur_1_pow=1.00_it=1_276_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cur_1_pow=1.00_it=1_276_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cur_1_pow=1.00_it=1_277_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cur_1_pow=1.00_it=1_276_10</x:t>
+    <x:t>cur_1_pow=1.00_it=1_276_9.csv</x:t>
   </x:si>
   <x:si>
     <x:t>SA15_volt_watt</x:t>
@@ -231,13 +131,88 @@
     <x:t>P_target_pct</x:t>
   </x:si>
   <x:si>
+    <x:t>cur_1_pow=1.00_it=1_276_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P_max</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_S_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_Q_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_PF_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>File</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_P_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_P_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_S_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_Q_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_PF_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Notes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DC_I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_Q_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P_min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_S_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AC_P_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DC_P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DC_V</x:t>
+  </x:si>
+  <x:si>
     <x:t>Voltage</x:t>
   </x:si>
   <x:si>
-    <x:t>min</x:t>
+    <x:t>AC_PF_2</x:t>
   </x:si>
   <x:si>
-    <x:t>max</x:t>
+    <x:t>event</x:t>
   </x:si>
   <x:si>
     <x:t>target</x:t>
@@ -903,939 +878,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <c:date1904 val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-              <a:t>cur_1_pow=1.00_it=1_276_10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>AC_VRMS_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_10.csv!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.56000018119812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_10.csv!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>278.026</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>277.948</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>278.027</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>278.045</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>277.963</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277.839</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>277.952</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>277.955</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>277.978</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>277.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>277.991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>AC_P_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_10.csv!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.56000018119812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_10.csv!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>328.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>323.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>321.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>345.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>292.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>302.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>308.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>305.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>313.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>314.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>P_target_pct</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_276_10.csv!$\$2:$\$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_276_10.csv!$[$2:$[$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:val val="0"/>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_10.csv!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.56000018119812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_10.csv!$Z$2:$Z$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="50050001"/>
-        <c:axId val="50050002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50050001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:crossAx val="50050002"/>
-        <c:delete val="0"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-                  <a:t>Time (secs)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50050002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:crossAx val="50050001"/>
-        <c:delete val="0"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:extLst>
-    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
-      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="-1" styleIndex="-1"/>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <c:date1904 val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-              <a:t>cur_1_pow=1.00_it=1_277_11</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>AC_VRMS_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_11.csv!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.559999942779541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.55999994277954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_11.csv!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>277.883</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>277.947</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>278.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>278.058</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>278.057</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277.945</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>278.081</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>278.027</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>278.056</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>278.013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.117</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>278.025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>AC_P_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_11.csv!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.559999942779541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.55999994277954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_11.csv!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>303.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>282.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>274.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>275.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>257.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>273.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>289.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>284.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>289.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>248.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>P_target_pct</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_277_11.csv!$\$2:$\$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_277_11.csv!$[$2:$[$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:val val="0"/>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_11.csv!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.559999942779541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.55999994277954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_11.csv!$Z$2:$Z$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="50060001"/>
-        <c:axId val="50060002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50060001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:crossAx val="50060002"/>
-        <c:delete val="0"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-                  <a:t>Time (secs)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50060002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:crossAx val="50060001"/>
-        <c:delete val="0"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:extLst>
-    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
-      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="-1" styleIndex="-1"/>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart0.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3693,6 +2736,9 @@
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
@@ -3704,1526 +2750,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <c:date1904 val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-              <a:t>cur_1_pow=1.00_it=1_277_7</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>AC_VRMS_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_7.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.569999933242798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.07999992370605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_7.csv!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>277.941</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>277.952</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>277.99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>278.112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>277.884</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277.88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>277.934</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>278.034</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>277.794</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>277.915</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>277.978</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>AC_P_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_7.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.569999933242798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.07999992370605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_7.csv!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>364.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>345.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>309.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>335.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>349.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>315.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>307.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>332.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>331.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>294.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>P_target_pct</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_277_7.csv!$\$2:$\$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_277_7.csv!$[$2:$[$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:val val="0"/>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_7.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.569999933242798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.07999992370605</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.57999992370605</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.07999992370605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_7.csv!$Z$2:$Z$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50020001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:crossAx val="50020002"/>
-        <c:delete val="0"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-                  <a:t>Time (secs)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50020002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:crossAx val="50020001"/>
-        <c:delete val="0"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:extLst>
-    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
-      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="-1" styleIndex="-1"/>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <c:date1904 val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-              <a:t>cur_1_pow=1.00_it=1_277_8</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>AC_VRMS_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_8.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.569999933242798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.05999994277954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_8.csv!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>277.972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>277.927</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>277.983</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>278.058</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>278.035</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277.955</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>277.97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>278.068</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>278.032</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>277.932</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>277.939</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>AC_P_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_8.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.569999933242798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.05999994277954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_8.csv!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>318.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>284.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>282.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>309.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>294.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>284.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>278.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>277.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>252.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>225.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>P_target_pct</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_277_8.csv!$\$2:$\$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_277_8.csv!$[$2:$[$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:val val="0"/>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_8.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.569999933242798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.05999994277954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.55999994277954</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.05999994277954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_277_8.csv!$Z$2:$Z$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>111.111111111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="50030001"/>
-        <c:axId val="50030002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50030001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:crossAx val="50030002"/>
-        <c:delete val="0"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-                  <a:t>Time (secs)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50030002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:crossAx val="50030001"/>
-        <c:delete val="0"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:extLst>
-    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
-      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="-1" styleIndex="-1"/>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <c:date1904 val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-              <a:t>cur_1_pow=1.00_it=1_276_9</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>AC_VRMS_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_9.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.570000171661377</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.06000018119812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_9.csv!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>277.952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>277.958</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>278.088</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>278.024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>278.036</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277.951</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>278.047</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>277.976</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>277.998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>278.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>AC_P_1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_9.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.570000171661377</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.06000018119812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_9.csv!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>328.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>386.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>407.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>391.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>376.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>394.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>408.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>356.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>363.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>361.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>P_target_pct</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_276_9.csv!$\$2:$\$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>cur_1_pow=1.00_it=1_276_9.csv!$[$2:$[$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:val val="0"/>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_9.csv!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.570000171661377</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.06000018119812</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.56000018119812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.06000018119812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cur_1_pow=1.00_it=1_276_9.csv!$Z$2:$Z$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="50040001"/>
-        <c:axId val="50040002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50040001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:crossAx val="50040002"/>
-        <c:delete val="0"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ko-KR" altLang="en-US" dirty="0" smtClean="0"/>
-                  <a:t>Time (secs)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50040002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:crossAx val="50040001"/>
-        <c:delete val="0"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:extLst>
-    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
-      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="-1" styleIndex="-1"/>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="361950" y="133350"/>
-        <a:ext cx="17145000" cy="7715250"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="361950" y="133350"/>
-        <a:ext cx="17145000" cy="7715250"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="361950" y="133350"/>
-        <a:ext cx="17145000" cy="7715250"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="361950" y="133350"/>
-        <a:ext cx="17145000" cy="7715250"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="361950" y="133350"/>
-        <a:ext cx="17145000" cy="7715250"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5545,7 +3072,7 @@
   <x:dimension ref="A1:C14"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="B20" activeCellId="0" sqref="B20:B20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
@@ -5556,2808 +3083,68 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="A5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
+      <x:c r="A6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
+      <x:c r="A8" s="2"/>
     </x:row>
     <x:row r="9" spans="1:1">
-      <x:c r="A9" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="A9" s="2"/>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="A10" s="2"/>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="A11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:1">
-      <x:c r="A12" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="A12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:1">
-      <x:c r="A13" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
+      <x:c r="A13" s="2"/>
     </x:row>
     <x:row r="14" spans="1:1">
-      <x:c r="A14" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
+      <x:c r="A14" s="2"/>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="A2:A2" location="result_summary.csv!A1"/>
     <x:hyperlink ref="A3:A3" location="cur_1_pow=1.00_it=1_276_6.csv!A1"/>
     <x:hyperlink ref="A4:A4" location="cur_1_pow=1.00_it=1_276_6!A1"/>
-    <x:hyperlink ref="A5:A5" location="cur_1_pow=1.00_it=1_277_7.csv!A1"/>
-    <x:hyperlink ref="A6:A6" location="cur_1_pow=1.00_it=1_277_7!A1"/>
-    <x:hyperlink ref="A7:A7" location="cur_1_pow=1.00_it=1_277_8.csv!A1"/>
-    <x:hyperlink ref="A8:A8" location="cur_1_pow=1.00_it=1_277_8!A1"/>
-    <x:hyperlink ref="A9:A9" location="cur_1_pow=1.00_it=1_276_9.csv!A1"/>
-    <x:hyperlink ref="A10:A10" location="cur_1_pow=1.00_it=1_276_9!A1"/>
-    <x:hyperlink ref="A11:A11" location="cur_1_pow=1.00_it=1_276_10.csv!A1"/>
-    <x:hyperlink ref="A12:A12" location="cur_1_pow=1.00_it=1_276_10!A1"/>
-    <x:hyperlink ref="A13:A13" location="cur_1_pow=1.00_it=1_277_11.csv!A1"/>
-    <x:hyperlink ref="A14:A14" location="cur_1_pow=1.00_it=1_277_11!A1"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet10"/>
-  <x:dimension ref="A1:AD12"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:cols>
-    <x:col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <x:col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <x:col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <x:col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <x:col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <x:col min="8" max="10" width="13.7109375" customWidth="1"/>
-    <x:col min="11" max="13" width="10.7109375" customWidth="1"/>
-    <x:col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <x:col min="15" max="17" width="13.7109375" customWidth="1"/>
-    <x:col min="18" max="20" width="10.7109375" customWidth="1"/>
-    <x:col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <x:col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <x:col min="23" max="25" width="10.7109375" customWidth="1"/>
-    <x:col min="26" max="26" width="16.7109375" customWidth="1"/>
-    <x:col min="27" max="28" width="13.7109375" customWidth="1"/>
-    <x:col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <x:col min="30" max="30" width="15.7109375" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:30">
-      <x:c r="A1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="T1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="U1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="V1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="X1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Y1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Z1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AA1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AB1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AC1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AD1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:30">
-      <x:c r="A2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2">
-        <x:v>277.952</x:v>
-      </x:c>
-      <x:c r="C2">
-        <x:v>1.2016</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>328.60000000000002</x:v>
-      </x:c>
-      <x:c r="H2">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="I2">
-        <x:v>277.88400000000001</x:v>
-      </x:c>
-      <x:c r="J2">
-        <x:v>1.2177</x:v>
-      </x:c>
-      <x:c r="K2">
-        <x:v>331.5</x:v>
-      </x:c>
-      <x:c r="O2">
-        <x:v>59.997999999999998</x:v>
-      </x:c>
-      <x:c r="P2">
-        <x:v>277.75900000000001</x:v>
-      </x:c>
-      <x:c r="Q2">
-        <x:v>1.2503</x:v>
-      </x:c>
-      <x:c r="R2">
-        <x:v>335.39999999999998</x:v>
-      </x:c>
-      <x:c r="V2">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="W2">
-        <x:v>555.27999999999997</x:v>
-      </x:c>
-      <x:c r="X2">
-        <x:v>-0.00374</x:v>
-      </x:c>
-      <x:c r="Y2">
-        <x:v>-2.0800000000000001</x:v>
-      </x:c>
-      <x:c r="Z2">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA2">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB2">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC2">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:30">
-      <x:c r="A3">
-        <x:v>0.57000017166137695</x:v>
-      </x:c>
-      <x:c r="B3">
-        <x:v>277.95800000000003</x:v>
-      </x:c>
-      <x:c r="C3">
-        <x:v>1.4067000000000001</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>386.5</x:v>
-      </x:c>
-      <x:c r="H3">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="I3">
-        <x:v>278.017</x:v>
-      </x:c>
-      <x:c r="J3">
-        <x:v>1.4286000000000001</x:v>
-      </x:c>
-      <x:c r="K3">
-        <x:v>391.30000000000001</x:v>
-      </x:c>
-      <x:c r="O3">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="P3">
-        <x:v>277.916</x:v>
-      </x:c>
-      <x:c r="Q3">
-        <x:v>1.4545999999999999</x:v>
-      </x:c>
-      <x:c r="R3">
-        <x:v>394.30000000000001</x:v>
-      </x:c>
-      <x:c r="V3">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="W3">
-        <x:v>554.25999999999999</x:v>
-      </x:c>
-      <x:c r="X3">
-        <x:v>-0.0027200000000000002</x:v>
-      </x:c>
-      <x:c r="Y3">
-        <x:v>-1.51</x:v>
-      </x:c>
-      <x:c r="Z3">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA3">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB3">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC3">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:30">
-      <x:c r="A4">
-        <x:v>1.0600001811981199</x:v>
-      </x:c>
-      <x:c r="B4">
-        <x:v>278.08800000000002</x:v>
-      </x:c>
-      <x:c r="C4">
-        <x:v>1.4787999999999999</x:v>
-      </x:c>
-      <x:c r="D4">
-        <x:v>407.10000000000002</x:v>
-      </x:c>
-      <x:c r="H4">
-        <x:v>60.014000000000003</x:v>
-      </x:c>
-      <x:c r="I4">
-        <x:v>278.16500000000002</x:v>
-      </x:c>
-      <x:c r="J4">
-        <x:v>1.4966999999999999</x:v>
-      </x:c>
-      <x:c r="K4">
-        <x:v>410.80000000000001</x:v>
-      </x:c>
-      <x:c r="O4">
-        <x:v>59.997</x:v>
-      </x:c>
-      <x:c r="P4">
-        <x:v>277.92000000000002</x:v>
-      </x:c>
-      <x:c r="Q4">
-        <x:v>1.5256000000000001</x:v>
-      </x:c>
-      <x:c r="R4">
-        <x:v>414.69999999999999</x:v>
-      </x:c>
-      <x:c r="V4">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="W4">
-        <x:v>553.87</x:v>
-      </x:c>
-      <x:c r="X4">
-        <x:v>-0.0033500000000000002</x:v>
-      </x:c>
-      <x:c r="Y4">
-        <x:v>-1.8600000000000001</x:v>
-      </x:c>
-      <x:c r="Z4">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA4">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB4">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC4">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:30">
-      <x:c r="A5">
-        <x:v>1.5600001811981199</x:v>
-      </x:c>
-      <x:c r="B5">
-        <x:v>278.024</x:v>
-      </x:c>
-      <x:c r="C5">
-        <x:v>1.4239999999999999</x:v>
-      </x:c>
-      <x:c r="D5">
-        <x:v>391.39999999999998</x:v>
-      </x:c>
-      <x:c r="H5">
-        <x:v>59.991</x:v>
-      </x:c>
-      <x:c r="I5">
-        <x:v>277.87700000000001</x:v>
-      </x:c>
-      <x:c r="J5">
-        <x:v>1.4410000000000001</x:v>
-      </x:c>
-      <x:c r="K5">
-        <x:v>394.60000000000002</x:v>
-      </x:c>
-      <x:c r="O5">
-        <x:v>60.009</x:v>
-      </x:c>
-      <x:c r="P5">
-        <x:v>277.85000000000002</x:v>
-      </x:c>
-      <x:c r="Q5">
-        <x:v>1.4730000000000001</x:v>
-      </x:c>
-      <x:c r="R5">
-        <x:v>399.60000000000002</x:v>
-      </x:c>
-      <x:c r="V5">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="W5">
-        <x:v>554.14999999999998</x:v>
-      </x:c>
-      <x:c r="X5">
-        <x:v>-0.0039500000000000002</x:v>
-      </x:c>
-      <x:c r="Y5">
-        <x:v>-2.1899999999999999</x:v>
-      </x:c>
-      <x:c r="Z5">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA5">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB5">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC5">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:30">
-      <x:c r="A6">
-        <x:v>2.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B6">
-        <x:v>278.036</x:v>
-      </x:c>
-      <x:c r="C6">
-        <x:v>1.3711</x:v>
-      </x:c>
-      <x:c r="D6">
-        <x:v>376.69999999999999</x:v>
-      </x:c>
-      <x:c r="H6">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="I6">
-        <x:v>277.93900000000002</x:v>
-      </x:c>
-      <x:c r="J6">
-        <x:v>1.3960999999999999</x:v>
-      </x:c>
-      <x:c r="K6">
-        <x:v>381.80000000000001</x:v>
-      </x:c>
-      <x:c r="O6">
-        <x:v>59.991</x:v>
-      </x:c>
-      <x:c r="P6">
-        <x:v>277.78800000000001</x:v>
-      </x:c>
-      <x:c r="Q6">
-        <x:v>1.4245000000000001</x:v>
-      </x:c>
-      <x:c r="R6">
-        <x:v>385.60000000000002</x:v>
-      </x:c>
-      <x:c r="V6">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="W6">
-        <x:v>554.42999999999995</x:v>
-      </x:c>
-      <x:c r="X6">
-        <x:v>-0.0035400000000000004</x:v>
-      </x:c>
-      <x:c r="Y6">
-        <x:v>-1.96</x:v>
-      </x:c>
-      <x:c r="Z6">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA6">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB6">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC6">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:30">
-      <x:c r="A7">
-        <x:v>2.5600001811981201</x:v>
-      </x:c>
-      <x:c r="B7">
-        <x:v>277.95100000000002</x:v>
-      </x:c>
-      <x:c r="C7">
-        <x:v>1.4339</x:v>
-      </x:c>
-      <x:c r="D7">
-        <x:v>394.30000000000001</x:v>
-      </x:c>
-      <x:c r="H7">
-        <x:v>59.993000000000002</x:v>
-      </x:c>
-      <x:c r="I7">
-        <x:v>278.09399999999999</x:v>
-      </x:c>
-      <x:c r="J7">
-        <x:v>1.4573</x:v>
-      </x:c>
-      <x:c r="K7">
-        <x:v>399.39999999999998</x:v>
-      </x:c>
-      <x:c r="O7">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="P7">
-        <x:v>277.86799999999999</x:v>
-      </x:c>
-      <x:c r="Q7">
-        <x:v>1.486</x:v>
-      </x:c>
-      <x:c r="R7">
-        <x:v>403.30000000000001</x:v>
-      </x:c>
-      <x:c r="V7">
-        <x:v>59.991</x:v>
-      </x:c>
-      <x:c r="W7">
-        <x:v>554.11000000000001</x:v>
-      </x:c>
-      <x:c r="X7">
-        <x:v>-0.0025900000000000001</x:v>
-      </x:c>
-      <x:c r="Y7">
-        <x:v>-1.4299999999999999</x:v>
-      </x:c>
-      <x:c r="Z7">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA7">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB7">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC7">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:30">
-      <x:c r="A8">
-        <x:v>3.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B8">
-        <x:v>278.04700000000003</x:v>
-      </x:c>
-      <x:c r="C8">
-        <x:v>1.4843999999999999</x:v>
-      </x:c>
-      <x:c r="D8">
-        <x:v>408.89999999999998</x:v>
-      </x:c>
-      <x:c r="H8">
-        <x:v>59.991999999999997</x:v>
-      </x:c>
-      <x:c r="I8">
-        <x:v>278.06099999999998</x:v>
-      </x:c>
-      <x:c r="J8">
-        <x:v>1.5054000000000001</x:v>
-      </x:c>
-      <x:c r="K8">
-        <x:v>413</x:v>
-      </x:c>
-      <x:c r="O8">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P8">
-        <x:v>277.91000000000003</x:v>
-      </x:c>
-      <x:c r="Q8">
-        <x:v>1.5344</x:v>
-      </x:c>
-      <x:c r="R8">
-        <x:v>417.10000000000002</x:v>
-      </x:c>
-      <x:c r="V8">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="W8">
-        <x:v>553.82000000000005</x:v>
-      </x:c>
-      <x:c r="X8">
-        <x:v>-0.00245</x:v>
-      </x:c>
-      <x:c r="Y8">
-        <x:v>-1.3600000000000001</x:v>
-      </x:c>
-      <x:c r="Z8">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA8">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB8">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC8">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:30">
-      <x:c r="A9">
-        <x:v>3.5600001811981201</x:v>
-      </x:c>
-      <x:c r="B9">
-        <x:v>277.976</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>1.3380000000000001</x:v>
-      </x:c>
-      <x:c r="D9">
-        <x:v>367</x:v>
-      </x:c>
-      <x:c r="H9">
-        <x:v>60.006999999999998</x:v>
-      </x:c>
-      <x:c r="I9">
-        <x:v>277.81599999999997</x:v>
-      </x:c>
-      <x:c r="J9">
-        <x:v>1.3653999999999999</x:v>
-      </x:c>
-      <x:c r="K9">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="O9">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="P9">
-        <x:v>277.95699999999999</x:v>
-      </x:c>
-      <x:c r="Q9">
-        <x:v>1.3955</x:v>
-      </x:c>
-      <x:c r="R9">
-        <x:v>377.39999999999998</x:v>
-      </x:c>
-      <x:c r="V9">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="W9">
-        <x:v>554.58000000000004</x:v>
-      </x:c>
-      <x:c r="X9">
-        <x:v>-0.0026000000000000001</x:v>
-      </x:c>
-      <x:c r="Y9">
-        <x:v>-1.4399999999999999</x:v>
-      </x:c>
-      <x:c r="Z9">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA9">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB9">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC9">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:30">
-      <x:c r="A10">
-        <x:v>4.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B10">
-        <x:v>277.99799999999999</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>1.2991999999999999</x:v>
-      </x:c>
-      <x:c r="D10">
-        <x:v>356.19999999999999</x:v>
-      </x:c>
-      <x:c r="H10">
-        <x:v>59.997</x:v>
-      </x:c>
-      <x:c r="I10">
-        <x:v>277.87799999999999</x:v>
-      </x:c>
-      <x:c r="J10">
-        <x:v>1.3173999999999999</x:v>
-      </x:c>
-      <x:c r="K10">
-        <x:v>359.89999999999998</x:v>
-      </x:c>
-      <x:c r="O10">
-        <x:v>60.006999999999998</x:v>
-      </x:c>
-      <x:c r="P10">
-        <x:v>277.88</x:v>
-      </x:c>
-      <x:c r="Q10">
-        <x:v>1.3511</x:v>
-      </x:c>
-      <x:c r="R10">
-        <x:v>364.60000000000002</x:v>
-      </x:c>
-      <x:c r="V10">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="W10">
-        <x:v>554.85000000000002</x:v>
-      </x:c>
-      <x:c r="X10">
-        <x:v>-0.0029299999999999998</x:v>
-      </x:c>
-      <x:c r="Y10">
-        <x:v>-1.6299999999999999</x:v>
-      </x:c>
-      <x:c r="Z10">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA10">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB10">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC10">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:30">
-      <x:c r="A11">
-        <x:v>4.5600001811981201</x:v>
-      </x:c>
-      <x:c r="B11">
-        <x:v>278.01999999999998</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>1.3247</x:v>
-      </x:c>
-      <x:c r="D11">
-        <x:v>363.5</x:v>
-      </x:c>
-      <x:c r="H11">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="I11">
-        <x:v>278.02999999999997</x:v>
-      </x:c>
-      <x:c r="J11">
-        <x:v>1.3398000000000001</x:v>
-      </x:c>
-      <x:c r="K11">
-        <x:v>366.30000000000001</x:v>
-      </x:c>
-      <x:c r="O11">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="P11">
-        <x:v>278.01600000000002</x:v>
-      </x:c>
-      <x:c r="Q11">
-        <x:v>1.3720000000000001</x:v>
-      </x:c>
-      <x:c r="R11">
-        <x:v>370.69999999999999</x:v>
-      </x:c>
-      <x:c r="V11">
-        <x:v>60.009999999999998</x:v>
-      </x:c>
-      <x:c r="W11">
-        <x:v>554.75999999999999</x:v>
-      </x:c>
-      <x:c r="X11">
-        <x:v>-0.0032100000000000001</x:v>
-      </x:c>
-      <x:c r="Y11">
-        <x:v>-1.78</x:v>
-      </x:c>
-      <x:c r="Z11">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA11">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB11">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC11">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:30">
-      <x:c r="A12">
-        <x:v>5.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B12">
-        <x:v>278.00599999999997</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>1.3199000000000001</x:v>
-      </x:c>
-      <x:c r="D12">
-        <x:v>361.89999999999998</x:v>
-      </x:c>
-      <x:c r="H12">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="I12">
-        <x:v>277.76999999999998</x:v>
-      </x:c>
-      <x:c r="J12">
-        <x:v>1.3392999999999999</x:v>
-      </x:c>
-      <x:c r="K12">
-        <x:v>365.69999999999999</x:v>
-      </x:c>
-      <x:c r="O12">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="P12">
-        <x:v>277.99000000000001</x:v>
-      </x:c>
-      <x:c r="Q12">
-        <x:v>1.3682000000000001</x:v>
-      </x:c>
-      <x:c r="R12">
-        <x:v>369.60000000000002</x:v>
-      </x:c>
-      <x:c r="V12">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="W12">
-        <x:v>554.72000000000003</x:v>
-      </x:c>
-      <x:c r="X12">
-        <x:v>-0.0029999999999999999</x:v>
-      </x:c>
-      <x:c r="Y12">
-        <x:v>-1.6699999999999999</x:v>
-      </x:c>
-      <x:c r="Z12">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA12">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB12">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AC12">
-        <x:v>276.85000000000002</x:v>
-      </x:c>
-      <x:c r="AD12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet11"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <x:drawing r:id="rId1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet12"/>
-  <x:dimension ref="A1:AD13"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:cols>
-    <x:col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <x:col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <x:col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <x:col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <x:col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <x:col min="8" max="10" width="13.7109375" customWidth="1"/>
-    <x:col min="11" max="13" width="10.7109375" customWidth="1"/>
-    <x:col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <x:col min="15" max="17" width="13.7109375" customWidth="1"/>
-    <x:col min="18" max="20" width="10.7109375" customWidth="1"/>
-    <x:col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <x:col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <x:col min="23" max="25" width="10.7109375" customWidth="1"/>
-    <x:col min="26" max="26" width="16.7109375" customWidth="1"/>
-    <x:col min="27" max="28" width="13.7109375" customWidth="1"/>
-    <x:col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <x:col min="30" max="30" width="15.7109375" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:30">
-      <x:c r="A1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="T1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="U1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="V1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="X1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Y1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Z1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AA1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AB1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AC1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AD1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:30">
-      <x:c r="A2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2">
-        <x:v>278.02600000000001</x:v>
-      </x:c>
-      <x:c r="C2">
-        <x:v>1.2005999999999999</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>328.19999999999999</x:v>
-      </x:c>
-      <x:c r="H2">
-        <x:v>60.014000000000003</x:v>
-      </x:c>
-      <x:c r="I2">
-        <x:v>277.95499999999998</x:v>
-      </x:c>
-      <x:c r="J2">
-        <x:v>1.2084999999999999</x:v>
-      </x:c>
-      <x:c r="K2">
-        <x:v>328.69999999999999</x:v>
-      </x:c>
-      <x:c r="O2">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="P2">
-        <x:v>277.84699999999998</x:v>
-      </x:c>
-      <x:c r="Q2">
-        <x:v>1.2422</x:v>
-      </x:c>
-      <x:c r="R2">
-        <x:v>333.5</x:v>
-      </x:c>
-      <x:c r="V2">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W2">
-        <x:v>555.41999999999996</x:v>
-      </x:c>
-      <x:c r="X2">
-        <x:v>-0.0030499999999999999</x:v>
-      </x:c>
-      <x:c r="Y2">
-        <x:v>-1.6899999999999999</x:v>
-      </x:c>
-      <x:c r="Z2">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA2">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB2">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC2">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:30">
-      <x:c r="A3">
-        <x:v>0.56000018119812001</x:v>
-      </x:c>
-      <x:c r="B3">
-        <x:v>277.94799999999998</x:v>
-      </x:c>
-      <x:c r="C3">
-        <x:v>1.1847000000000001</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>323.89999999999998</x:v>
-      </x:c>
-      <x:c r="H3">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="I3">
-        <x:v>277.98700000000002</x:v>
-      </x:c>
-      <x:c r="J3">
-        <x:v>1.2015</x:v>
-      </x:c>
-      <x:c r="K3">
-        <x:v>326.60000000000002</x:v>
-      </x:c>
-      <x:c r="O3">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="P3">
-        <x:v>277.86900000000003</x:v>
-      </x:c>
-      <x:c r="Q3">
-        <x:v>1.2278</x:v>
-      </x:c>
-      <x:c r="R3">
-        <x:v>329.39999999999998</x:v>
-      </x:c>
-      <x:c r="V3">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="W3">
-        <x:v>555.47000000000003</x:v>
-      </x:c>
-      <x:c r="X3">
-        <x:v>-0.0035999999999999999</x:v>
-      </x:c>
-      <x:c r="Y3">
-        <x:v>-2</x:v>
-      </x:c>
-      <x:c r="Z3">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA3">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB3">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC3">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:30">
-      <x:c r="A4">
-        <x:v>1.0600001811981199</x:v>
-      </x:c>
-      <x:c r="B4">
-        <x:v>278.02699999999999</x:v>
-      </x:c>
-      <x:c r="C4">
-        <x:v>1.179</x:v>
-      </x:c>
-      <x:c r="D4">
-        <x:v>321.89999999999998</x:v>
-      </x:c>
-      <x:c r="H4">
-        <x:v>60.011000000000003</x:v>
-      </x:c>
-      <x:c r="I4">
-        <x:v>278.08600000000001</x:v>
-      </x:c>
-      <x:c r="J4">
-        <x:v>1.1923999999999999</x:v>
-      </x:c>
-      <x:c r="K4">
-        <x:v>324.10000000000002</x:v>
-      </x:c>
-      <x:c r="O4">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="P4">
-        <x:v>277.83499999999998</x:v>
-      </x:c>
-      <x:c r="Q4">
-        <x:v>1.2293000000000001</x:v>
-      </x:c>
-      <x:c r="R4">
-        <x:v>329.69999999999999</x:v>
-      </x:c>
-      <x:c r="V4">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W4">
-        <x:v>555.51999999999998</x:v>
-      </x:c>
-      <x:c r="X4">
-        <x:v>-0.0032900000000000001</x:v>
-      </x:c>
-      <x:c r="Y4">
-        <x:v>-1.8300000000000001</x:v>
-      </x:c>
-      <x:c r="Z4">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA4">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB4">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC4">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:30">
-      <x:c r="A5">
-        <x:v>1.5600001811981199</x:v>
-      </x:c>
-      <x:c r="B5">
-        <x:v>278.04500000000002</x:v>
-      </x:c>
-      <x:c r="C5">
-        <x:v>1.2598</x:v>
-      </x:c>
-      <x:c r="D5">
-        <x:v>345.10000000000002</x:v>
-      </x:c>
-      <x:c r="H5">
-        <x:v>59.991999999999997</x:v>
-      </x:c>
-      <x:c r="I5">
-        <x:v>277.94999999999999</x:v>
-      </x:c>
-      <x:c r="J5">
-        <x:v>1.2745</x:v>
-      </x:c>
-      <x:c r="K5">
-        <x:v>347.69999999999999</x:v>
-      </x:c>
-      <x:c r="O5">
-        <x:v>60.012</x:v>
-      </x:c>
-      <x:c r="P5">
-        <x:v>277.84500000000003</x:v>
-      </x:c>
-      <x:c r="Q5">
-        <x:v>1.3065</x:v>
-      </x:c>
-      <x:c r="R5">
-        <x:v>352.10000000000002</x:v>
-      </x:c>
-      <x:c r="V5">
-        <x:v>59.997999999999998</x:v>
-      </x:c>
-      <x:c r="W5">
-        <x:v>555.01999999999998</x:v>
-      </x:c>
-      <x:c r="X5">
-        <x:v>-0.0025700000000000001</x:v>
-      </x:c>
-      <x:c r="Y5">
-        <x:v>-1.4299999999999999</x:v>
-      </x:c>
-      <x:c r="Z5">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA5">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB5">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC5">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:30">
-      <x:c r="A6">
-        <x:v>2.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B6">
-        <x:v>277.96300000000002</x:v>
-      </x:c>
-      <x:c r="C6">
-        <x:v>1.1140000000000001</x:v>
-      </x:c>
-      <x:c r="D6">
-        <x:v>303.5</x:v>
-      </x:c>
-      <x:c r="H6">
-        <x:v>59.990000000000002</x:v>
-      </x:c>
-      <x:c r="I6">
-        <x:v>277.86500000000001</x:v>
-      </x:c>
-      <x:c r="J6">
-        <x:v>1.1356999999999999</x:v>
-      </x:c>
-      <x:c r="K6">
-        <x:v>308</x:v>
-      </x:c>
-      <x:c r="O6">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="P6">
-        <x:v>278.01900000000001</x:v>
-      </x:c>
-      <x:c r="Q6">
-        <x:v>1.1625000000000001</x:v>
-      </x:c>
-      <x:c r="R6">
-        <x:v>310.5</x:v>
-      </x:c>
-      <x:c r="V6">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="W6">
-        <x:v>555.82000000000005</x:v>
-      </x:c>
-      <x:c r="X6">
-        <x:v>-0.00252</x:v>
-      </x:c>
-      <x:c r="Y6">
-        <x:v>-1.3999999999999999</x:v>
-      </x:c>
-      <x:c r="Z6">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA6">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB6">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC6">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:30">
-      <x:c r="A7">
-        <x:v>2.5600001811981201</x:v>
-      </x:c>
-      <x:c r="B7">
-        <x:v>277.839</x:v>
-      </x:c>
-      <x:c r="C7">
-        <x:v>1.0752999999999999</x:v>
-      </x:c>
-      <x:c r="D7">
-        <x:v>292.80000000000001</x:v>
-      </x:c>
-      <x:c r="H7">
-        <x:v>59.997999999999998</x:v>
-      </x:c>
-      <x:c r="I7">
-        <x:v>277.95999999999998</x:v>
-      </x:c>
-      <x:c r="J7">
-        <x:v>1.0929</x:v>
-      </x:c>
-      <x:c r="K7">
-        <x:v>296.10000000000002</x:v>
-      </x:c>
-      <x:c r="O7">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="P7">
-        <x:v>278.00900000000001</x:v>
-      </x:c>
-      <x:c r="Q7">
-        <x:v>1.1281000000000001</x:v>
-      </x:c>
-      <x:c r="R7">
-        <x:v>300.5</x:v>
-      </x:c>
-      <x:c r="V7">
-        <x:v>59.991999999999997</x:v>
-      </x:c>
-      <x:c r="W7">
-        <x:v>555.97000000000003</x:v>
-      </x:c>
-      <x:c r="X7">
-        <x:v>-0.0019400000000000001</x:v>
-      </x:c>
-      <x:c r="Y7">
-        <x:v>-1.0800000000000001</x:v>
-      </x:c>
-      <x:c r="Z7">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA7">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB7">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC7">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:30">
-      <x:c r="A8">
-        <x:v>3.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B8">
-        <x:v>277.952</x:v>
-      </x:c>
-      <x:c r="C8">
-        <x:v>1.1117999999999999</x:v>
-      </x:c>
-      <x:c r="D8">
-        <x:v>302.80000000000001</x:v>
-      </x:c>
-      <x:c r="H8">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="I8">
-        <x:v>278.06700000000001</x:v>
-      </x:c>
-      <x:c r="J8">
-        <x:v>1.1223000000000001</x:v>
-      </x:c>
-      <x:c r="K8">
-        <x:v>304.60000000000002</x:v>
-      </x:c>
-      <x:c r="O8">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="P8">
-        <x:v>277.97699999999998</x:v>
-      </x:c>
-      <x:c r="Q8">
-        <x:v>1.161</x:v>
-      </x:c>
-      <x:c r="R8">
-        <x:v>310</x:v>
-      </x:c>
-      <x:c r="V8">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="W8">
-        <x:v>555.91999999999996</x:v>
-      </x:c>
-      <x:c r="X8">
-        <x:v>-0.0019700000000000001</x:v>
-      </x:c>
-      <x:c r="Y8">
-        <x:v>-1.1000000000000001</x:v>
-      </x:c>
-      <x:c r="Z8">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA8">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB8">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC8">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:30">
-      <x:c r="A9">
-        <x:v>3.5600001811981201</x:v>
-      </x:c>
-      <x:c r="B9">
-        <x:v>277.95499999999998</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>1.1866000000000001</x:v>
-      </x:c>
-      <x:c r="D9">
-        <x:v>324</x:v>
-      </x:c>
-      <x:c r="H9">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="I9">
-        <x:v>277.83300000000003</x:v>
-      </x:c>
-      <x:c r="J9">
-        <x:v>1.2001999999999999</x:v>
-      </x:c>
-      <x:c r="K9">
-        <x:v>326.60000000000002</x:v>
-      </x:c>
-      <x:c r="O9">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="P9">
-        <x:v>277.98399999999998</x:v>
-      </x:c>
-      <x:c r="Q9">
-        <x:v>1.2293000000000001</x:v>
-      </x:c>
-      <x:c r="R9">
-        <x:v>329.69999999999999</x:v>
-      </x:c>
-      <x:c r="V9">
-        <x:v>59.997</x:v>
-      </x:c>
-      <x:c r="W9">
-        <x:v>555.42999999999995</x:v>
-      </x:c>
-      <x:c r="X9">
-        <x:v>-0.00254</x:v>
-      </x:c>
-      <x:c r="Y9">
-        <x:v>-1.4099999999999999</x:v>
-      </x:c>
-      <x:c r="Z9">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA9">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB9">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC9">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:30">
-      <x:c r="A10">
-        <x:v>4.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B10">
-        <x:v>277.97800000000001</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>1.1307</x:v>
-      </x:c>
-      <x:c r="D10">
-        <x:v>308.60000000000002</x:v>
-      </x:c>
-      <x:c r="H10">
-        <x:v>59.994999999999997</x:v>
-      </x:c>
-      <x:c r="I10">
-        <x:v>277.90699999999998</x:v>
-      </x:c>
-      <x:c r="J10">
-        <x:v>1.1497999999999999</x:v>
-      </x:c>
-      <x:c r="K10">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="O10">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="P10">
-        <x:v>277.90600000000001</x:v>
-      </x:c>
-      <x:c r="Q10">
-        <x:v>1.1817</x:v>
-      </x:c>
-      <x:c r="R10">
-        <x:v>315.89999999999998</x:v>
-      </x:c>
-      <x:c r="V10">
-        <x:v>59.997999999999998</x:v>
-      </x:c>
-      <x:c r="W10">
-        <x:v>555.67999999999995</x:v>
-      </x:c>
-      <x:c r="X10">
-        <x:v>-0.0041999999999999998</x:v>
-      </x:c>
-      <x:c r="Y10">
-        <x:v>-2.3399999999999999</x:v>
-      </x:c>
-      <x:c r="Z10">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA10">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB10">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC10">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:30">
-      <x:c r="A11">
-        <x:v>4.5600001811981201</x:v>
-      </x:c>
-      <x:c r="B11">
-        <x:v>277.88999999999999</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>1.1226</x:v>
-      </x:c>
-      <x:c r="D11">
-        <x:v>305.89999999999998</x:v>
-      </x:c>
-      <x:c r="H11">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="I11">
-        <x:v>278.00400000000002</x:v>
-      </x:c>
-      <x:c r="J11">
-        <x:v>1.1446000000000001</x:v>
-      </x:c>
-      <x:c r="K11">
-        <x:v>310.89999999999998</x:v>
-      </x:c>
-      <x:c r="O11">
-        <x:v>59.990000000000002</x:v>
-      </x:c>
-      <x:c r="P11">
-        <x:v>277.923</x:v>
-      </x:c>
-      <x:c r="Q11">
-        <x:v>1.1716</x:v>
-      </x:c>
-      <x:c r="R11">
-        <x:v>312.69999999999999</x:v>
-      </x:c>
-      <x:c r="V11">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="W11">
-        <x:v>555.78999999999996</x:v>
-      </x:c>
-      <x:c r="X11">
-        <x:v>-0.0033800000000000002</x:v>
-      </x:c>
-      <x:c r="Y11">
-        <x:v>-1.8799999999999999</x:v>
-      </x:c>
-      <x:c r="Z11">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA11">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB11">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC11">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:30">
-      <x:c r="A12">
-        <x:v>5.0600001811981201</x:v>
-      </x:c>
-      <x:c r="B12">
-        <x:v>278.00799999999998</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>1.1479999999999999</x:v>
-      </x:c>
-      <x:c r="D12">
-        <x:v>313.30000000000001</x:v>
-      </x:c>
-      <x:c r="H12">
-        <x:v>60.006999999999998</x:v>
-      </x:c>
-      <x:c r="I12">
-        <x:v>278.108</x:v>
-      </x:c>
-      <x:c r="J12">
-        <x:v>1.1648000000000001</x:v>
-      </x:c>
-      <x:c r="K12">
-        <x:v>316.39999999999998</x:v>
-      </x:c>
-      <x:c r="O12">
-        <x:v>59.999000000000002</x:v>
-      </x:c>
-      <x:c r="P12">
-        <x:v>278.02499999999998</x:v>
-      </x:c>
-      <x:c r="Q12">
-        <x:v>1.1916</x:v>
-      </x:c>
-      <x:c r="R12">
-        <x:v>318.89999999999998</x:v>
-      </x:c>
-      <x:c r="V12">
-        <x:v>59.993000000000002</x:v>
-      </x:c>
-      <x:c r="W12">
-        <x:v>555.69000000000005</x:v>
-      </x:c>
-      <x:c r="X12">
-        <x:v>-0.0032500000000000001</x:v>
-      </x:c>
-      <x:c r="Y12">
-        <x:v>-1.8100000000000001</x:v>
-      </x:c>
-      <x:c r="Z12">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA12">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB12">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC12">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:30">
-      <x:c r="A13">
-        <x:v>5.5600001811981201</x:v>
-      </x:c>
-      <x:c r="B13">
-        <x:v>277.99099999999999</x:v>
-      </x:c>
-      <x:c r="C13">
-        <x:v>1.151</x:v>
-      </x:c>
-      <x:c r="D13">
-        <x:v>314.19999999999999</x:v>
-      </x:c>
-      <x:c r="H13">
-        <x:v>59.999000000000002</x:v>
-      </x:c>
-      <x:c r="I13">
-        <x:v>277.84899999999999</x:v>
-      </x:c>
-      <x:c r="J13">
-        <x:v>1.1647000000000001</x:v>
-      </x:c>
-      <x:c r="K13">
-        <x:v>316.19999999999999</x:v>
-      </x:c>
-      <x:c r="O13">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P13">
-        <x:v>277.988</x:v>
-      </x:c>
-      <x:c r="Q13">
-        <x:v>1.1979</x:v>
-      </x:c>
-      <x:c r="R13">
-        <x:v>320.60000000000002</x:v>
-      </x:c>
-      <x:c r="V13">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="W13">
-        <x:v>555.61000000000001</x:v>
-      </x:c>
-      <x:c r="X13">
-        <x:v>-0.0031</x:v>
-      </x:c>
-      <x:c r="Y13">
-        <x:v>-1.72</x:v>
-      </x:c>
-      <x:c r="Z13">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA13">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB13">
-        <x:v>118.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC13">
-        <x:v>276.97500000000002</x:v>
-      </x:c>
-      <x:c r="AD13" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet13"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <x:drawing r:id="rId1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet14"/>
-  <x:dimension ref="A1:AD13"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:cols>
-    <x:col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <x:col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <x:col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <x:col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <x:col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <x:col min="8" max="10" width="13.7109375" customWidth="1"/>
-    <x:col min="11" max="13" width="10.7109375" customWidth="1"/>
-    <x:col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <x:col min="15" max="17" width="13.7109375" customWidth="1"/>
-    <x:col min="18" max="20" width="10.7109375" customWidth="1"/>
-    <x:col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <x:col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <x:col min="23" max="25" width="10.7109375" customWidth="1"/>
-    <x:col min="26" max="26" width="17.7109375" customWidth="1"/>
-    <x:col min="27" max="28" width="13.7109375" customWidth="1"/>
-    <x:col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <x:col min="30" max="30" width="15.7109375" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:30">
-      <x:c r="A1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="T1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="U1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="V1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="X1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Y1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Z1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AA1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AB1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AC1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AD1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:30">
-      <x:c r="A2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2">
-        <x:v>277.88299999999998</x:v>
-      </x:c>
-      <x:c r="C2">
-        <x:v>1.1117999999999999</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>303.10000000000002</x:v>
-      </x:c>
-      <x:c r="H2">
-        <x:v>59.988</x:v>
-      </x:c>
-      <x:c r="I2">
-        <x:v>277.94799999999998</x:v>
-      </x:c>
-      <x:c r="J2">
-        <x:v>1.1329</x:v>
-      </x:c>
-      <x:c r="K2">
-        <x:v>307.19999999999999</x:v>
-      </x:c>
-      <x:c r="O2">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P2">
-        <x:v>277.89400000000001</x:v>
-      </x:c>
-      <x:c r="Q2">
-        <x:v>1.1592</x:v>
-      </x:c>
-      <x:c r="R2">
-        <x:v>309.39999999999998</x:v>
-      </x:c>
-      <x:c r="V2">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W2">
-        <x:v>555.82000000000005</x:v>
-      </x:c>
-      <x:c r="X2">
-        <x:v>-0.0032299999999999995</x:v>
-      </x:c>
-      <x:c r="Y2">
-        <x:v>-1.79</x:v>
-      </x:c>
-      <x:c r="Z2">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA2">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB2">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC2">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:30">
-      <x:c r="A3">
-        <x:v>0.55999994277954102</x:v>
-      </x:c>
-      <x:c r="B3">
-        <x:v>277.947</x:v>
-      </x:c>
-      <x:c r="C3">
-        <x:v>1.0405</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>282.69999999999999</x:v>
-      </x:c>
-      <x:c r="H3">
-        <x:v>60.012</x:v>
-      </x:c>
-      <x:c r="I3">
-        <x:v>277.94</x:v>
-      </x:c>
-      <x:c r="J3">
-        <x:v>1.0592999999999999</x:v>
-      </x:c>
-      <x:c r="K3">
-        <x:v>286.30000000000001</x:v>
-      </x:c>
-      <x:c r="O3">
-        <x:v>59.997</x:v>
-      </x:c>
-      <x:c r="P3">
-        <x:v>278.036</x:v>
-      </x:c>
-      <x:c r="Q3">
-        <x:v>1.0911999999999999</x:v>
-      </x:c>
-      <x:c r="R3">
-        <x:v>289.60000000000002</x:v>
-      </x:c>
-      <x:c r="V3">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W3">
-        <x:v>556.23000000000002</x:v>
-      </x:c>
-      <x:c r="X3">
-        <x:v>-0.00375</x:v>
-      </x:c>
-      <x:c r="Y3">
-        <x:v>-2.0899999999999999</x:v>
-      </x:c>
-      <x:c r="Z3">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA3">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB3">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC3">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:30">
-      <x:c r="A4">
-        <x:v>1.0599999427795399</x:v>
-      </x:c>
-      <x:c r="B4">
-        <x:v>278.08999999999997</x:v>
-      </x:c>
-      <x:c r="C4">
-        <x:v>1.0130999999999999</x:v>
-      </x:c>
-      <x:c r="D4">
-        <x:v>274.89999999999998</x:v>
-      </x:c>
-      <x:c r="H4">
-        <x:v>59.997</x:v>
-      </x:c>
-      <x:c r="I4">
-        <x:v>278.11500000000001</x:v>
-      </x:c>
-      <x:c r="J4">
-        <x:v>1.03</x:v>
-      </x:c>
-      <x:c r="K4">
-        <x:v>277.80000000000001</x:v>
-      </x:c>
-      <x:c r="O4">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P4">
-        <x:v>277.97199999999998</x:v>
-      </x:c>
-      <x:c r="Q4">
-        <x:v>1.0610999999999999</x:v>
-      </x:c>
-      <x:c r="R4">
-        <x:v>280.5</x:v>
-      </x:c>
-      <x:c r="V4">
-        <x:v>59.994999999999997</x:v>
-      </x:c>
-      <x:c r="W4">
-        <x:v>556.45000000000005</x:v>
-      </x:c>
-      <x:c r="X4">
-        <x:v>-0.0040000000000000002</x:v>
-      </x:c>
-      <x:c r="Y4">
-        <x:v>-2.23</x:v>
-      </x:c>
-      <x:c r="Z4">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA4">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB4">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC4">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:30">
-      <x:c r="A5">
-        <x:v>1.5599999427795399</x:v>
-      </x:c>
-      <x:c r="B5">
-        <x:v>278.05799999999999</x:v>
-      </x:c>
-      <x:c r="C5">
-        <x:v>1.0137</x:v>
-      </x:c>
-      <x:c r="D5">
-        <x:v>275.30000000000001</x:v>
-      </x:c>
-      <x:c r="H5">
-        <x:v>59.997999999999998</x:v>
-      </x:c>
-      <x:c r="I5">
-        <x:v>277.85199999999998</x:v>
-      </x:c>
-      <x:c r="J5">
-        <x:v>1.0342</x:v>
-      </x:c>
-      <x:c r="K5">
-        <x:v>278.80000000000001</x:v>
-      </x:c>
-      <x:c r="O5">
-        <x:v>59.993000000000002</x:v>
-      </x:c>
-      <x:c r="P5">
-        <x:v>277.94600000000003</x:v>
-      </x:c>
-      <x:c r="Q5">
-        <x:v>1.0700000000000001</x:v>
-      </x:c>
-      <x:c r="R5">
-        <x:v>283.69999999999999</x:v>
-      </x:c>
-      <x:c r="V5">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="W5">
-        <x:v>556.30999999999995</x:v>
-      </x:c>
-      <x:c r="X5">
-        <x:v>-0.0038700000000000001</x:v>
-      </x:c>
-      <x:c r="Y5">
-        <x:v>-2.1499999999999999</x:v>
-      </x:c>
-      <x:c r="Z5">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA5">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB5">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC5">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:30">
-      <x:c r="A6">
-        <x:v>2.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B6">
-        <x:v>278.05700000000002</x:v>
-      </x:c>
-      <x:c r="C6">
-        <x:v>0.95099999999999996</x:v>
-      </x:c>
-      <x:c r="D6">
-        <x:v>257.39999999999998</x:v>
-      </x:c>
-      <x:c r="H6">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="I6">
-        <x:v>277.89800000000002</x:v>
-      </x:c>
-      <x:c r="J6">
-        <x:v>0.96989999999999998</x:v>
-      </x:c>
-      <x:c r="K6">
-        <x:v>260.5</x:v>
-      </x:c>
-      <x:c r="O6">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="P6">
-        <x:v>277.85899999999998</x:v>
-      </x:c>
-      <x:c r="Q6">
-        <x:v>0.99990000000000001</x:v>
-      </x:c>
-      <x:c r="R6">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="V6">
-        <x:v>59.993000000000002</x:v>
-      </x:c>
-      <x:c r="W6">
-        <x:v>556.69000000000005</x:v>
-      </x:c>
-      <x:c r="X6">
-        <x:v>-0.0028100000000000003</x:v>
-      </x:c>
-      <x:c r="Y6">
-        <x:v>-1.5600000000000001</x:v>
-      </x:c>
-      <x:c r="Z6">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA6">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB6">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC6">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:30">
-      <x:c r="A7">
-        <x:v>2.5599999427795401</x:v>
-      </x:c>
-      <x:c r="B7">
-        <x:v>277.94499999999999</x:v>
-      </x:c>
-      <x:c r="C7">
-        <x:v>1.0093000000000001</x:v>
-      </x:c>
-      <x:c r="D7">
-        <x:v>273.89999999999998</x:v>
-      </x:c>
-      <x:c r="H7">
-        <x:v>59.991</x:v>
-      </x:c>
-      <x:c r="I7">
-        <x:v>278.01299999999998</x:v>
-      </x:c>
-      <x:c r="J7">
-        <x:v>1.0245</x:v>
-      </x:c>
-      <x:c r="K7">
-        <x:v>276.30000000000001</x:v>
-      </x:c>
-      <x:c r="O7">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P7">
-        <x:v>277.93799999999999</x:v>
-      </x:c>
-      <x:c r="Q7">
-        <x:v>1.0576000000000001</x:v>
-      </x:c>
-      <x:c r="R7">
-        <x:v>279.80000000000001</x:v>
-      </x:c>
-      <x:c r="V7">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="W7">
-        <x:v>556.40999999999997</x:v>
-      </x:c>
-      <x:c r="X7">
-        <x:v>-0.0027399999999999997</x:v>
-      </x:c>
-      <x:c r="Y7">
-        <x:v>-1.52</x:v>
-      </x:c>
-      <x:c r="Z7">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA7">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB7">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC7">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:30">
-      <x:c r="A8">
-        <x:v>3.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B8">
-        <x:v>278.08100000000002</x:v>
-      </x:c>
-      <x:c r="C8">
-        <x:v>1.0619000000000001</x:v>
-      </x:c>
-      <x:c r="D8">
-        <x:v>289.10000000000002</x:v>
-      </x:c>
-      <x:c r="H8">
-        <x:v>60.009</x:v>
-      </x:c>
-      <x:c r="I8">
-        <x:v>278.16399999999999</x:v>
-      </x:c>
-      <x:c r="J8">
-        <x:v>1.0846</x:v>
-      </x:c>
-      <x:c r="K8">
-        <x:v>293.60000000000002</x:v>
-      </x:c>
-      <x:c r="O8">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="P8">
-        <x:v>277.94499999999999</x:v>
-      </x:c>
-      <x:c r="Q8">
-        <x:v>1.1191</x:v>
-      </x:c>
-      <x:c r="R8">
-        <x:v>297.5</x:v>
-      </x:c>
-      <x:c r="V8">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="W8">
-        <x:v>556.03999999999996</x:v>
-      </x:c>
-      <x:c r="X8">
-        <x:v>-0.0032100000000000001</x:v>
-      </x:c>
-      <x:c r="Y8">
-        <x:v>-1.79</x:v>
-      </x:c>
-      <x:c r="Z8">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA8">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB8">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC8">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:30">
-      <x:c r="A9">
-        <x:v>3.5599999427795401</x:v>
-      </x:c>
-      <x:c r="B9">
-        <x:v>278.02699999999999</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>1.0450999999999999</x:v>
-      </x:c>
-      <x:c r="D9">
-        <x:v>284.19999999999999</x:v>
-      </x:c>
-      <x:c r="H9">
-        <x:v>59.990000000000002</x:v>
-      </x:c>
-      <x:c r="I9">
-        <x:v>277.899</x:v>
-      </x:c>
-      <x:c r="J9">
-        <x:v>1.0703</x:v>
-      </x:c>
-      <x:c r="K9">
-        <x:v>289.60000000000002</x:v>
-      </x:c>
-      <x:c r="O9">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="P9">
-        <x:v>277.90199999999999</x:v>
-      </x:c>
-      <x:c r="Q9">
-        <x:v>1.1034999999999999</x:v>
-      </x:c>
-      <x:c r="R9">
-        <x:v>293.39999999999998</x:v>
-      </x:c>
-      <x:c r="V9">
-        <x:v>59.991999999999997</x:v>
-      </x:c>
-      <x:c r="W9">
-        <x:v>556.13999999999999</x:v>
-      </x:c>
-      <x:c r="X9">
-        <x:v>-0.0035000000000000003</x:v>
-      </x:c>
-      <x:c r="Y9">
-        <x:v>-1.95</x:v>
-      </x:c>
-      <x:c r="Z9">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA9">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB9">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC9">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:30">
-      <x:c r="A10">
-        <x:v>4.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B10">
-        <x:v>278.05599999999998</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>1.0087999999999999</x:v>
-      </x:c>
-      <x:c r="D10">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="H10">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="I10">
-        <x:v>277.94400000000002</x:v>
-      </x:c>
-      <x:c r="J10">
-        <x:v>1.0289999999999999</x:v>
-      </x:c>
-      <x:c r="K10">
-        <x:v>277.30000000000001</x:v>
-      </x:c>
-      <x:c r="O10">
-        <x:v>59.991</x:v>
-      </x:c>
-      <x:c r="P10">
-        <x:v>277.82600000000002</x:v>
-      </x:c>
-      <x:c r="Q10">
-        <x:v>1.0642</x:v>
-      </x:c>
-      <x:c r="R10">
-        <x:v>281.30000000000001</x:v>
-      </x:c>
-      <x:c r="V10">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="W10">
-        <x:v>556.37</x:v>
-      </x:c>
-      <x:c r="X10">
-        <x:v>-0.0028100000000000003</x:v>
-      </x:c>
-      <x:c r="Y10">
-        <x:v>-1.5600000000000001</x:v>
-      </x:c>
-      <x:c r="Z10">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA10">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB10">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC10">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:30">
-      <x:c r="A11">
-        <x:v>4.5599999427795401</x:v>
-      </x:c>
-      <x:c r="B11">
-        <x:v>278.01299999999998</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>1.0239</x:v>
-      </x:c>
-      <x:c r="D11">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="H11">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="I11">
-        <x:v>278.07100000000003</x:v>
-      </x:c>
-      <x:c r="J11">
-        <x:v>1.0395000000000001</x:v>
-      </x:c>
-      <x:c r="K11">
-        <x:v>280.69999999999999</x:v>
-      </x:c>
-      <x:c r="O11">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="P11">
-        <x:v>277.93000000000001</x:v>
-      </x:c>
-      <x:c r="Q11">
-        <x:v>1.0683</x:v>
-      </x:c>
-      <x:c r="R11">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="V11">
-        <x:v>59.994999999999997</x:v>
-      </x:c>
-      <x:c r="W11">
-        <x:v>556.37</x:v>
-      </x:c>
-      <x:c r="X11">
-        <x:v>-0.0032299999999999995</x:v>
-      </x:c>
-      <x:c r="Y11">
-        <x:v>-1.8</x:v>
-      </x:c>
-      <x:c r="Z11">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA11">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB11">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC11">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:30">
-      <x:c r="A12">
-        <x:v>5.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B12">
-        <x:v>278.11700000000002</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>1.0610999999999999</x:v>
-      </x:c>
-      <x:c r="D12">
-        <x:v>289.10000000000002</x:v>
-      </x:c>
-      <x:c r="H12">
-        <x:v>59.985999999999997</x:v>
-      </x:c>
-      <x:c r="I12">
-        <x:v>278.12099999999998</x:v>
-      </x:c>
-      <x:c r="J12">
-        <x:v>1.0823</x:v>
-      </x:c>
-      <x:c r="K12">
-        <x:v>293.10000000000002</x:v>
-      </x:c>
-      <x:c r="O12">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P12">
-        <x:v>277.92599999999999</x:v>
-      </x:c>
-      <x:c r="Q12">
-        <x:v>1.1113999999999999</x:v>
-      </x:c>
-      <x:c r="R12">
-        <x:v>295.60000000000002</x:v>
-      </x:c>
-      <x:c r="V12">
-        <x:v>60.006999999999998</x:v>
-      </x:c>
-      <x:c r="W12">
-        <x:v>556.05999999999995</x:v>
-      </x:c>
-      <x:c r="X12">
-        <x:v>-0.0028700000000000003</x:v>
-      </x:c>
-      <x:c r="Y12">
-        <x:v>-1.5900000000000001</x:v>
-      </x:c>
-      <x:c r="Z12">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA12">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB12">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC12">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:30">
-      <x:c r="A13">
-        <x:v>5.5599999427795401</x:v>
-      </x:c>
-      <x:c r="B13">
-        <x:v>278.02499999999998</x:v>
-      </x:c>
-      <x:c r="C13">
-        <x:v>0.9204</x:v>
-      </x:c>
-      <x:c r="D13">
-        <x:v>248.30000000000001</x:v>
-      </x:c>
-      <x:c r="H13">
-        <x:v>60.011000000000003</x:v>
-      </x:c>
-      <x:c r="I13">
-        <x:v>277.85500000000002</x:v>
-      </x:c>
-      <x:c r="J13">
-        <x:v>0.93489999999999995</x:v>
-      </x:c>
-      <x:c r="K13">
-        <x:v>250.40000000000001</x:v>
-      </x:c>
-      <x:c r="O13">
-        <x:v>59.997999999999998</x:v>
-      </x:c>
-      <x:c r="P13">
-        <x:v>278.09500000000003</x:v>
-      </x:c>
-      <x:c r="Q13">
-        <x:v>0.96509999999999996</x:v>
-      </x:c>
-      <x:c r="R13">
-        <x:v>252.80000000000001</x:v>
-      </x:c>
-      <x:c r="V13">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W13">
-        <x:v>556.91999999999996</x:v>
-      </x:c>
-      <x:c r="X13">
-        <x:v>-0.00318</x:v>
-      </x:c>
-      <x:c r="Y13">
-        <x:v>-1.77</x:v>
-      </x:c>
-      <x:c r="Z13">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA13">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB13">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC13">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD13" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet15"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <x:drawing r:id="rId1"/>
 </x:worksheet>
 </file>
 
@@ -8385,42 +3172,42 @@
   <x:sheetData>
     <x:row r="1" spans="1:10">
       <x:c r="A1" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="F1" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="G1" t="s">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J1" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>100</x:v>
@@ -8429,7 +3216,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2">
         <x:v>277.10000000000002</x:v>
@@ -8444,15 +3231,15 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="J2" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>100</x:v>
@@ -8461,7 +3248,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F3">
         <x:v>277.05000000000001</x:v>
@@ -8476,15 +3263,15 @@
         <x:v>127.59999999999999</x:v>
       </x:c>
       <x:c r="J3" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>100</x:v>
@@ -8493,7 +3280,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F4">
         <x:v>277</x:v>
@@ -8513,10 +3300,10 @@
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>100</x:v>
@@ -8525,7 +3312,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F5">
         <x:v>277.10000000000002</x:v>
@@ -8540,15 +3327,15 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="J5" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>100</x:v>
@@ -8557,7 +3344,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F6">
         <x:v>277</x:v>
@@ -8572,15 +3359,15 @@
         <x:v>121.09999999999999</x:v>
       </x:c>
       <x:c r="J6" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>100</x:v>
@@ -8589,7 +3376,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F7">
         <x:v>276.89999999999998</x:v>
@@ -8604,15 +3391,15 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="J7" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>100</x:v>
@@ -8621,7 +3408,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F8">
         <x:v>276.89999999999998</x:v>
@@ -8636,15 +3423,15 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="J8" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>100</x:v>
@@ -8653,7 +3440,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F9">
         <x:v>277</x:v>
@@ -8668,15 +3455,15 @@
         <x:v>121.09999999999999</x:v>
       </x:c>
       <x:c r="J9" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>100</x:v>
@@ -8685,7 +3472,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10">
         <x:v>277.10000000000002</x:v>
@@ -8700,15 +3487,15 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="J10" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>100</x:v>
@@ -8717,7 +3504,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F11">
         <x:v>276.85000000000002</x:v>
@@ -8732,15 +3519,15 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="J11" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>100</x:v>
@@ -8749,7 +3536,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F12">
         <x:v>276.97500000000002</x:v>
@@ -8764,15 +3551,15 @@
         <x:v>118.09999999999999</x:v>
       </x:c>
       <x:c r="J12" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" t="s">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>64</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>100</x:v>
@@ -8781,7 +3568,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F13">
         <x:v>277.10000000000002</x:v>
@@ -8796,11 +3583,11 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="J13" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -8838,94 +3625,94 @@
   <x:sheetData>
     <x:row r="1" spans="1:30">
       <x:c r="A1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>41</x:v>
-      </x:c>
       <x:c r="G1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="J1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="L1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="M1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="O1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="K1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
+      <x:c r="P1" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="P1" t="s">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="Q1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="R1" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="S1" t="s">
-        <x:v>49</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="T1" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="U1" t="s">
-        <x:v>50</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="V1" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="W1" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="X1" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Y1" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z1" t="s">
-        <x:v>66</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="AA1" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="AB1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="AC1" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="AD1" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:30">
@@ -8990,7 +3777,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD2" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:30">
@@ -9055,7 +3842,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD3" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:30">
@@ -9120,7 +3907,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD4" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:30">
@@ -9185,7 +3972,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD5" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:30">
@@ -9250,7 +4037,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD6" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:30">
@@ -9315,7 +4102,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD7" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:30">
@@ -9380,7 +4167,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD8" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:30">
@@ -9445,7 +4232,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD9" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:30">
@@ -9510,7 +4297,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD10" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:30">
@@ -9575,7 +4362,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD11" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:30">
@@ -9640,7 +4427,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD12" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:30">
@@ -9705,7 +4492,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD13" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:30">
@@ -9770,7 +4557,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD14" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:30">
@@ -9835,7 +4622,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD15" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:30">
@@ -9900,7 +4687,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD16" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:30">
@@ -9965,7 +4752,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD17" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:30">
@@ -10030,7 +4817,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD18" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:30">
@@ -10095,7 +4882,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD19" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:30">
@@ -10160,7 +4947,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD20" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:30">
@@ -10225,7 +5012,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD21" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:30">
@@ -10290,7 +5077,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD22" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:30">
@@ -10355,7 +5142,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD23" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:30">
@@ -10420,7 +5207,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD24" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:30">
@@ -10485,7 +5272,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD25" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:30">
@@ -10550,7 +5337,7 @@
         <x:v>277.05000000000001</x:v>
       </x:c>
       <x:c r="AD26" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:30">
@@ -10615,7 +5402,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD27" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:30">
@@ -10680,7 +5467,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD28" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:30">
@@ -10745,7 +5532,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD29" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:30">
@@ -10810,7 +5597,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD30" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:30">
@@ -10875,7 +5662,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD31" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:30">
@@ -10940,7 +5727,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD32" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:30">
@@ -11005,7 +5792,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD33" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:30">
@@ -11070,7 +5857,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD34" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:30">
@@ -11135,7 +5922,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD35" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:30">
@@ -11200,7 +5987,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD36" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:30">
@@ -11265,7 +6052,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD37" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:30">
@@ -11330,7 +6117,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD38" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:30">
@@ -11395,7 +6182,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD39" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:30">
@@ -11460,7 +6247,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD40" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:30">
@@ -11525,7 +6312,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD41" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:30">
@@ -11590,7 +6377,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD42" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:30">
@@ -11655,7 +6442,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD43" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:30">
@@ -11720,7 +6507,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD44" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:30">
@@ -11785,7 +6572,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD45" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:30">
@@ -11850,7 +6637,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD46" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:30">
@@ -11915,7 +6702,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD47" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:30">
@@ -11980,7 +6767,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD48" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:30">
@@ -12045,7 +6832,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD49" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:30">
@@ -12110,7 +6897,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD50" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:30">
@@ -12175,7 +6962,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD51" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:30">
@@ -12240,7 +7027,7 @@
         <x:v>277.10000000000002</x:v>
       </x:c>
       <x:c r="AD52" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:30">
@@ -12305,7 +7092,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD53" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:30">
@@ -12370,7 +7157,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD54" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:30">
@@ -12435,7 +7222,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD55" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:30">
@@ -12500,7 +7287,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD56" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:30">
@@ -12565,7 +7352,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD57" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:30">
@@ -12630,7 +7417,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD58" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:30">
@@ -12695,7 +7482,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD59" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:30">
@@ -12760,7 +7547,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD60" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:30">
@@ -12825,7 +7612,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD61" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:30">
@@ -12890,7 +7677,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD62" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:30">
@@ -12955,7 +7742,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD63" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:30">
@@ -13020,7 +7807,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD64" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:30">
@@ -13085,7 +7872,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="AD65" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:30">
@@ -13150,7 +7937,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD66" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:30">
@@ -13215,7 +8002,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD67" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:30">
@@ -13280,7 +8067,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD68" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:30">
@@ -13345,7 +8132,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD69" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:30">
@@ -13410,7 +8197,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD70" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:30">
@@ -13475,7 +8262,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD71" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:30">
@@ -13540,7 +8327,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD72" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:30">
@@ -13605,7 +8392,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD73" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:30">
@@ -13670,7 +8457,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD74" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:30">
@@ -13735,7 +8522,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD75" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:30">
@@ -13800,7 +8587,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD76" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:30">
@@ -13865,7 +8652,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD77" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:30">
@@ -13930,7 +8717,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD78" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:30">
@@ -13995,7 +8782,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD79" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:30">
@@ -14060,7 +8847,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD80" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:30">
@@ -14125,7 +8912,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD81" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:30">
@@ -14190,7 +8977,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD82" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:30">
@@ -14255,7 +9042,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD83" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:30">
@@ -14320,7 +9107,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD84" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:30">
@@ -14385,7 +9172,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD85" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:30">
@@ -14450,7 +9237,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD86" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:30">
@@ -14515,7 +9302,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD87" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:30">
@@ -14580,7 +9367,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD88" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:30">
@@ -14645,7 +9432,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD89" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:30">
@@ -14710,7 +9497,7 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD90" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:30">
@@ -14775,11 +9562,11 @@
         <x:v>276.89999999999998</x:v>
       </x:c>
       <x:c r="AD91" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -14795,7 +9582,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -14807,7 +9594,7 @@
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
+      <x:selection activeCell="C1" activeCellId="0" sqref="C1:C1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
@@ -14817,16 +9604,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -14900,1733 +9687,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet6"/>
-  <x:dimension ref="A1:AD12"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:cols>
-    <x:col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <x:col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <x:col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <x:col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <x:col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <x:col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <x:col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <x:col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <x:col min="11" max="13" width="10.7109375" customWidth="1"/>
-    <x:col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <x:col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <x:col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <x:col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <x:col min="18" max="20" width="10.7109375" customWidth="1"/>
-    <x:col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <x:col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <x:col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <x:col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <x:col min="25" max="25" width="10.7109375" customWidth="1"/>
-    <x:col min="26" max="26" width="16.7109375" customWidth="1"/>
-    <x:col min="27" max="28" width="13.7109375" customWidth="1"/>
-    <x:col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <x:col min="30" max="30" width="15.7109375" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:30">
-      <x:c r="A1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="T1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="U1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="V1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="X1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Y1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Z1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AA1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AB1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AC1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AD1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:30">
-      <x:c r="A2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2">
-        <x:v>277.94099999999997</x:v>
-      </x:c>
-      <x:c r="C2">
-        <x:v>1.3283</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>364.39999999999998</x:v>
-      </x:c>
-      <x:c r="H2">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="I2">
-        <x:v>277.90199999999999</x:v>
-      </x:c>
-      <x:c r="J2">
-        <x:v>1.3423</x:v>
-      </x:c>
-      <x:c r="K2">
-        <x:v>366.60000000000002</x:v>
-      </x:c>
-      <x:c r="O2">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="P2">
-        <x:v>277.92200000000003</x:v>
-      </x:c>
-      <x:c r="Q2">
-        <x:v>1.3742000000000001</x:v>
-      </x:c>
-      <x:c r="R2">
-        <x:v>371.10000000000002</x:v>
-      </x:c>
-      <x:c r="V2">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="W2">
-        <x:v>554.65999999999997</x:v>
-      </x:c>
-      <x:c r="X2">
-        <x:v>-0.0028999999999999998</x:v>
-      </x:c>
-      <x:c r="Y2">
-        <x:v>-1.6100000000000001</x:v>
-      </x:c>
-      <x:c r="Z2">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA2">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB2">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC2">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:30">
-      <x:c r="A3">
-        <x:v>0.56999993324279796</x:v>
-      </x:c>
-      <x:c r="B3">
-        <x:v>277.952</x:v>
-      </x:c>
-      <x:c r="C3">
-        <x:v>1.2613000000000001</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>345.5</x:v>
-      </x:c>
-      <x:c r="H3">
-        <x:v>59.993000000000002</x:v>
-      </x:c>
-      <x:c r="I3">
-        <x:v>277.911</x:v>
-      </x:c>
-      <x:c r="J3">
-        <x:v>1.2779</x:v>
-      </x:c>
-      <x:c r="K3">
-        <x:v>348.30000000000001</x:v>
-      </x:c>
-      <x:c r="O3">
-        <x:v>60.009999999999998</x:v>
-      </x:c>
-      <x:c r="P3">
-        <x:v>277.99900000000002</x:v>
-      </x:c>
-      <x:c r="Q3">
-        <x:v>1.3078000000000001</x:v>
-      </x:c>
-      <x:c r="R3">
-        <x:v>352.60000000000002</x:v>
-      </x:c>
-      <x:c r="V3">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="W3">
-        <x:v>555</x:v>
-      </x:c>
-      <x:c r="X3">
-        <x:v>-0.0039200000000000002</x:v>
-      </x:c>
-      <x:c r="Y3">
-        <x:v>-2.1699999999999999</x:v>
-      </x:c>
-      <x:c r="Z3">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA3">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB3">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC3">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:30">
-      <x:c r="A4">
-        <x:v>1.07999992370605</x:v>
-      </x:c>
-      <x:c r="B4">
-        <x:v>277.99000000000001</x:v>
-      </x:c>
-      <x:c r="C4">
-        <x:v>1.1331</x:v>
-      </x:c>
-      <x:c r="D4">
-        <x:v>309.30000000000001</x:v>
-      </x:c>
-      <x:c r="H4">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="I4">
-        <x:v>277.93799999999999</x:v>
-      </x:c>
-      <x:c r="J4">
-        <x:v>1.1572</x:v>
-      </x:c>
-      <x:c r="K4">
-        <x:v>314.30000000000001</x:v>
-      </x:c>
-      <x:c r="O4">
-        <x:v>59.990000000000002</x:v>
-      </x:c>
-      <x:c r="P4">
-        <x:v>277.93900000000002</x:v>
-      </x:c>
-      <x:c r="Q4">
-        <x:v>1.1849000000000001</x:v>
-      </x:c>
-      <x:c r="R4">
-        <x:v>316.5</x:v>
-      </x:c>
-      <x:c r="V4">
-        <x:v>60.012999999999998</x:v>
-      </x:c>
-      <x:c r="W4">
-        <x:v>555.73000000000002</x:v>
-      </x:c>
-      <x:c r="X4">
-        <x:v>-0.0027599999999999997</x:v>
-      </x:c>
-      <x:c r="Y4">
-        <x:v>-1.53</x:v>
-      </x:c>
-      <x:c r="Z4">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA4">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB4">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC4">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:30">
-      <x:c r="A5">
-        <x:v>1.57999992370605</x:v>
-      </x:c>
-      <x:c r="B5">
-        <x:v>278.11200000000002</x:v>
-      </x:c>
-      <x:c r="C5">
-        <x:v>1.2235</x:v>
-      </x:c>
-      <x:c r="D5">
-        <x:v>335.30000000000001</x:v>
-      </x:c>
-      <x:c r="H5">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="I5">
-        <x:v>278.08800000000002</x:v>
-      </x:c>
-      <x:c r="J5">
-        <x:v>1.2424999999999999</x:v>
-      </x:c>
-      <x:c r="K5">
-        <x:v>338.39999999999998</x:v>
-      </x:c>
-      <x:c r="O5">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="P5">
-        <x:v>277.95499999999998</x:v>
-      </x:c>
-      <x:c r="Q5">
-        <x:v>1.2741</x:v>
-      </x:c>
-      <x:c r="R5">
-        <x:v>342.5</x:v>
-      </x:c>
-      <x:c r="V5">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="W5">
-        <x:v>555.17999999999995</x:v>
-      </x:c>
-      <x:c r="X5">
-        <x:v>-0.0034199999999999997</x:v>
-      </x:c>
-      <x:c r="Y5">
-        <x:v>-1.8999999999999999</x:v>
-      </x:c>
-      <x:c r="Z5">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA5">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB5">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC5">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:30">
-      <x:c r="A6">
-        <x:v>2.0799999237060498</x:v>
-      </x:c>
-      <x:c r="B6">
-        <x:v>277.88400000000001</x:v>
-      </x:c>
-      <x:c r="C6">
-        <x:v>1.2755000000000001</x:v>
-      </x:c>
-      <x:c r="D6">
-        <x:v>349.10000000000002</x:v>
-      </x:c>
-      <x:c r="H6">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="I6">
-        <x:v>277.83999999999997</x:v>
-      </x:c>
-      <x:c r="J6">
-        <x:v>1.2927999999999999</x:v>
-      </x:c>
-      <x:c r="K6">
-        <x:v>353.10000000000002</x:v>
-      </x:c>
-      <x:c r="O6">
-        <x:v>60.000999999999998</x:v>
-      </x:c>
-      <x:c r="P6">
-        <x:v>278.03199999999998</x:v>
-      </x:c>
-      <x:c r="Q6">
-        <x:v>1.3219000000000001</x:v>
-      </x:c>
-      <x:c r="R6">
-        <x:v>356.30000000000001</x:v>
-      </x:c>
-      <x:c r="V6">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="W6">
-        <x:v>554.95000000000005</x:v>
-      </x:c>
-      <x:c r="X6">
-        <x:v>-0.0035300000000000004</x:v>
-      </x:c>
-      <x:c r="Y6">
-        <x:v>-1.96</x:v>
-      </x:c>
-      <x:c r="Z6">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA6">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB6">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC6">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:30">
-      <x:c r="A7">
-        <x:v>2.5799999237060498</x:v>
-      </x:c>
-      <x:c r="B7">
-        <x:v>277.88</x:v>
-      </x:c>
-      <x:c r="C7">
-        <x:v>1.1579999999999999</x:v>
-      </x:c>
-      <x:c r="D7">
-        <x:v>315.89999999999998</x:v>
-      </x:c>
-      <x:c r="H7">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="I7">
-        <x:v>277.92899999999997</x:v>
-      </x:c>
-      <x:c r="J7">
-        <x:v>1.1716</x:v>
-      </x:c>
-      <x:c r="K7">
-        <x:v>318.5</x:v>
-      </x:c>
-      <x:c r="O7">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="P7">
-        <x:v>278.01100000000002</x:v>
-      </x:c>
-      <x:c r="Q7">
-        <x:v>1.2075</x:v>
-      </x:c>
-      <x:c r="R7">
-        <x:v>323.80000000000001</x:v>
-      </x:c>
-      <x:c r="V7">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W7">
-        <x:v>555.59000000000003</x:v>
-      </x:c>
-      <x:c r="X7">
-        <x:v>-0.0039400000000000002</x:v>
-      </x:c>
-      <x:c r="Y7">
-        <x:v>-2.1899999999999999</x:v>
-      </x:c>
-      <x:c r="Z7">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA7">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB7">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC7">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:30">
-      <x:c r="A8">
-        <x:v>3.0799999237060498</x:v>
-      </x:c>
-      <x:c r="B8">
-        <x:v>277.93400000000003</x:v>
-      </x:c>
-      <x:c r="C8">
-        <x:v>1.1278999999999999</x:v>
-      </x:c>
-      <x:c r="D8">
-        <x:v>307.19999999999999</x:v>
-      </x:c>
-      <x:c r="H8">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="I8">
-        <x:v>278.03800000000001</x:v>
-      </x:c>
-      <x:c r="J8">
-        <x:v>1.1500999999999999</x:v>
-      </x:c>
-      <x:c r="K8">
-        <x:v>312.30000000000001</x:v>
-      </x:c>
-      <x:c r="O8">
-        <x:v>60.009</x:v>
-      </x:c>
-      <x:c r="P8">
-        <x:v>277.95100000000002</x:v>
-      </x:c>
-      <x:c r="Q8">
-        <x:v>1.1763999999999999</x:v>
-      </x:c>
-      <x:c r="R8">
-        <x:v>314.39999999999998</x:v>
-      </x:c>
-      <x:c r="V8">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="W8">
-        <x:v>555.78999999999996</x:v>
-      </x:c>
-      <x:c r="X8">
-        <x:v>-0.0032900000000000001</x:v>
-      </x:c>
-      <x:c r="Y8">
-        <x:v>-1.8300000000000001</x:v>
-      </x:c>
-      <x:c r="Z8">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA8">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB8">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC8">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:30">
-      <x:c r="A9">
-        <x:v>3.5799999237060498</x:v>
-      </x:c>
-      <x:c r="B9">
-        <x:v>278.03399999999999</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>1.2138</x:v>
-      </x:c>
-      <x:c r="D9">
-        <x:v>332.39999999999998</x:v>
-      </x:c>
-      <x:c r="H9">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="I9">
-        <x:v>278.08999999999997</x:v>
-      </x:c>
-      <x:c r="J9">
-        <x:v>1.2319</x:v>
-      </x:c>
-      <x:c r="K9">
-        <x:v>335.69999999999999</x:v>
-      </x:c>
-      <x:c r="O9">
-        <x:v>59.993000000000002</x:v>
-      </x:c>
-      <x:c r="P9">
-        <x:v>277.96699999999998</x:v>
-      </x:c>
-      <x:c r="Q9">
-        <x:v>1.2657</x:v>
-      </x:c>
-      <x:c r="R9">
-        <x:v>340.19999999999999</x:v>
-      </x:c>
-      <x:c r="V9">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="W9">
-        <x:v>555.24000000000001</x:v>
-      </x:c>
-      <x:c r="X9">
-        <x:v>-0.0030199999999999999</x:v>
-      </x:c>
-      <x:c r="Y9">
-        <x:v>-1.6799999999999999</x:v>
-      </x:c>
-      <x:c r="Z9">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA9">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB9">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC9">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:30">
-      <x:c r="A10">
-        <x:v>4.0799999237060502</x:v>
-      </x:c>
-      <x:c r="B10">
-        <x:v>277.79399999999998</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>1.2121999999999999</x:v>
-      </x:c>
-      <x:c r="D10">
-        <x:v>331.5</x:v>
-      </x:c>
-      <x:c r="H10">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="I10">
-        <x:v>277.91199999999998</x:v>
-      </x:c>
-      <x:c r="J10">
-        <x:v>1.2278</x:v>
-      </x:c>
-      <x:c r="K10">
-        <x:v>334.60000000000002</x:v>
-      </x:c>
-      <x:c r="O10">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="P10">
-        <x:v>277.98399999999998</x:v>
-      </x:c>
-      <x:c r="Q10">
-        <x:v>1.2578</x:v>
-      </x:c>
-      <x:c r="R10">
-        <x:v>337.89999999999998</x:v>
-      </x:c>
-      <x:c r="V10">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="W10">
-        <x:v>555.25999999999999</x:v>
-      </x:c>
-      <x:c r="X10">
-        <x:v>-0.0027200000000000002</x:v>
-      </x:c>
-      <x:c r="Y10">
-        <x:v>-1.51</x:v>
-      </x:c>
-      <x:c r="Z10">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA10">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB10">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC10">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:30">
-      <x:c r="A11">
-        <x:v>4.5799999237060502</x:v>
-      </x:c>
-      <x:c r="B11">
-        <x:v>277.91500000000002</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>1.0760000000000001</x:v>
-      </x:c>
-      <x:c r="D11">
-        <x:v>293</x:v>
-      </x:c>
-      <x:c r="H11">
-        <x:v>59.999000000000002</x:v>
-      </x:c>
-      <x:c r="I11">
-        <x:v>277.976</x:v>
-      </x:c>
-      <x:c r="J11">
-        <x:v>1.099</x:v>
-      </x:c>
-      <x:c r="K11">
-        <x:v>297.39999999999998</x:v>
-      </x:c>
-      <x:c r="O11">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P11">
-        <x:v>277.94400000000002</x:v>
-      </x:c>
-      <x:c r="Q11">
-        <x:v>1.129</x:v>
-      </x:c>
-      <x:c r="R11">
-        <x:v>300.5</x:v>
-      </x:c>
-      <x:c r="V11">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W11">
-        <x:v>556.07000000000005</x:v>
-      </x:c>
-      <x:c r="X11">
-        <x:v>-0.00307</x:v>
-      </x:c>
-      <x:c r="Y11">
-        <x:v>-1.71</x:v>
-      </x:c>
-      <x:c r="Z11">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA11">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB11">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC11">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:30">
-      <x:c r="A12">
-        <x:v>5.0799999237060502</x:v>
-      </x:c>
-      <x:c r="B12">
-        <x:v>277.97800000000001</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>1.0812999999999999</x:v>
-      </x:c>
-      <x:c r="D12">
-        <x:v>294.5</x:v>
-      </x:c>
-      <x:c r="H12">
-        <x:v>60.009999999999998</x:v>
-      </x:c>
-      <x:c r="I12">
-        <x:v>278.08600000000001</x:v>
-      </x:c>
-      <x:c r="J12">
-        <x:v>1.1096999999999999</x:v>
-      </x:c>
-      <x:c r="K12">
-        <x:v>300.30000000000001</x:v>
-      </x:c>
-      <x:c r="O12">
-        <x:v>59.999000000000002</x:v>
-      </x:c>
-      <x:c r="P12">
-        <x:v>277.90699999999998</x:v>
-      </x:c>
-      <x:c r="Q12">
-        <x:v>1.1349</x:v>
-      </x:c>
-      <x:c r="R12">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="V12">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W12">
-        <x:v>556</x:v>
-      </x:c>
-      <x:c r="X12">
-        <x:v>-0.0029899999999999999</x:v>
-      </x:c>
-      <x:c r="Y12">
-        <x:v>-1.6599999999999999</x:v>
-      </x:c>
-      <x:c r="Z12">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="AA12">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB12">
-        <x:v>121.09999999999999</x:v>
-      </x:c>
-      <x:c r="AC12">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="AD12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet7"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <x:drawing r:id="rId1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet8"/>
-  <x:dimension ref="A1:AD12"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:cols>
-    <x:col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <x:col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <x:col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <x:col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <x:col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <x:col min="8" max="10" width="13.7109375" customWidth="1"/>
-    <x:col min="11" max="13" width="10.7109375" customWidth="1"/>
-    <x:col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <x:col min="15" max="17" width="13.7109375" customWidth="1"/>
-    <x:col min="18" max="20" width="10.7109375" customWidth="1"/>
-    <x:col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <x:col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <x:col min="23" max="25" width="10.7109375" customWidth="1"/>
-    <x:col min="26" max="26" width="17.7109375" customWidth="1"/>
-    <x:col min="27" max="28" width="13.7109375" customWidth="1"/>
-    <x:col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <x:col min="30" max="30" width="15.7109375" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:30">
-      <x:c r="A1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="T1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="U1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="V1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="X1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Y1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Z1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AA1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AB1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AC1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AD1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:30">
-      <x:c r="A2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2">
-        <x:v>277.97199999999998</x:v>
-      </x:c>
-      <x:c r="C2">
-        <x:v>1.1672</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>318.89999999999998</x:v>
-      </x:c>
-      <x:c r="H2">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="I2">
-        <x:v>278.12799999999999</x:v>
-      </x:c>
-      <x:c r="J2">
-        <x:v>1.1808000000000001</x:v>
-      </x:c>
-      <x:c r="K2">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="O2">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="P2">
-        <x:v>278.108</x:v>
-      </x:c>
-      <x:c r="Q2">
-        <x:v>1.2131000000000001</x:v>
-      </x:c>
-      <x:c r="R2">
-        <x:v>325.39999999999998</x:v>
-      </x:c>
-      <x:c r="V2">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="W2">
-        <x:v>555.50999999999999</x:v>
-      </x:c>
-      <x:c r="X2">
-        <x:v>-0.0033200000000000002</x:v>
-      </x:c>
-      <x:c r="Y2">
-        <x:v>-1.8500000000000001</x:v>
-      </x:c>
-      <x:c r="Z2">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA2">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB2">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC2">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:30">
-      <x:c r="A3">
-        <x:v>0.56999993324279796</x:v>
-      </x:c>
-      <x:c r="B3">
-        <x:v>277.92700000000002</x:v>
-      </x:c>
-      <x:c r="C3">
-        <x:v>1.1141000000000001</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="H3">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="I3">
-        <x:v>277.86099999999999</x:v>
-      </x:c>
-      <x:c r="J3">
-        <x:v>1.1364000000000001</x:v>
-      </x:c>
-      <x:c r="K3">
-        <x:v>308.39999999999998</x:v>
-      </x:c>
-      <x:c r="O3">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="P3">
-        <x:v>278.04500000000002</x:v>
-      </x:c>
-      <x:c r="Q3">
-        <x:v>1.1619999999999999</x:v>
-      </x:c>
-      <x:c r="R3">
-        <x:v>309.89999999999998</x:v>
-      </x:c>
-      <x:c r="V3">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="W3">
-        <x:v>555.79999999999995</x:v>
-      </x:c>
-      <x:c r="X3">
-        <x:v>-0.00312</x:v>
-      </x:c>
-      <x:c r="Y3">
-        <x:v>-1.73</x:v>
-      </x:c>
-      <x:c r="Z3">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA3">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB3">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC3">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:30">
-      <x:c r="A4">
-        <x:v>1.0599999427795399</x:v>
-      </x:c>
-      <x:c r="B4">
-        <x:v>277.983</x:v>
-      </x:c>
-      <x:c r="C4">
-        <x:v>1.0470999999999999</x:v>
-      </x:c>
-      <x:c r="D4">
-        <x:v>284.80000000000001</x:v>
-      </x:c>
-      <x:c r="H4">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="I4">
-        <x:v>277.92000000000002</x:v>
-      </x:c>
-      <x:c r="J4">
-        <x:v>1.0737000000000001</x:v>
-      </x:c>
-      <x:c r="K4">
-        <x:v>290.10000000000002</x:v>
-      </x:c>
-      <x:c r="O4">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="P4">
-        <x:v>277.96100000000001</x:v>
-      </x:c>
-      <x:c r="Q4">
-        <x:v>1.0979000000000001</x:v>
-      </x:c>
-      <x:c r="R4">
-        <x:v>291.60000000000002</x:v>
-      </x:c>
-      <x:c r="V4">
-        <x:v>60.011000000000003</x:v>
-      </x:c>
-      <x:c r="W4">
-        <x:v>556.15999999999997</x:v>
-      </x:c>
-      <x:c r="X4">
-        <x:v>-0.0033200000000000002</x:v>
-      </x:c>
-      <x:c r="Y4">
-        <x:v>-1.8500000000000001</x:v>
-      </x:c>
-      <x:c r="Z4">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA4">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB4">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC4">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:30">
-      <x:c r="A5">
-        <x:v>1.5599999427795399</x:v>
-      </x:c>
-      <x:c r="B5">
-        <x:v>278.05799999999999</x:v>
-      </x:c>
-      <x:c r="C5">
-        <x:v>1.0405</x:v>
-      </x:c>
-      <x:c r="D5">
-        <x:v>282.89999999999998</x:v>
-      </x:c>
-      <x:c r="H5">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="I5">
-        <x:v>278.04000000000002</x:v>
-      </x:c>
-      <x:c r="J5">
-        <x:v>1.0584</x:v>
-      </x:c>
-      <x:c r="K5">
-        <x:v>285.80000000000001</x:v>
-      </x:c>
-      <x:c r="O5">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="P5">
-        <x:v>277.89100000000002</x:v>
-      </x:c>
-      <x:c r="Q5">
-        <x:v>1.0878000000000001</x:v>
-      </x:c>
-      <x:c r="R5">
-        <x:v>288.69999999999999</x:v>
-      </x:c>
-      <x:c r="V5">
-        <x:v>59.991999999999997</x:v>
-      </x:c>
-      <x:c r="W5">
-        <x:v>556.27999999999997</x:v>
-      </x:c>
-      <x:c r="X5">
-        <x:v>-0.0035599999999999998</x:v>
-      </x:c>
-      <x:c r="Y5">
-        <x:v>-1.98</x:v>
-      </x:c>
-      <x:c r="Z5">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA5">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB5">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC5">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:30">
-      <x:c r="A6">
-        <x:v>2.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B6">
-        <x:v>278.03500000000003</x:v>
-      </x:c>
-      <x:c r="C6">
-        <x:v>1.1343000000000001</x:v>
-      </x:c>
-      <x:c r="D6">
-        <x:v>309.5</x:v>
-      </x:c>
-      <x:c r="H6">
-        <x:v>59.997999999999998</x:v>
-      </x:c>
-      <x:c r="I6">
-        <x:v>277.995</x:v>
-      </x:c>
-      <x:c r="J6">
-        <x:v>1.1475</x:v>
-      </x:c>
-      <x:c r="K6">
-        <x:v>311.69999999999999</x:v>
-      </x:c>
-      <x:c r="O6">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="P6">
-        <x:v>277.95400000000001</x:v>
-      </x:c>
-      <x:c r="Q6">
-        <x:v>1.1805000000000001</x:v>
-      </x:c>
-      <x:c r="R6">
-        <x:v>315.5</x:v>
-      </x:c>
-      <x:c r="V6">
-        <x:v>60.003</x:v>
-      </x:c>
-      <x:c r="W6">
-        <x:v>555.71000000000004</x:v>
-      </x:c>
-      <x:c r="X6">
-        <x:v>-0.00307</x:v>
-      </x:c>
-      <x:c r="Y6">
-        <x:v>-1.71</x:v>
-      </x:c>
-      <x:c r="Z6">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA6">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB6">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC6">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:30">
-      <x:c r="A7">
-        <x:v>2.5599999427795401</x:v>
-      </x:c>
-      <x:c r="B7">
-        <x:v>277.95499999999998</x:v>
-      </x:c>
-      <x:c r="C7">
-        <x:v>1.0842000000000001</x:v>
-      </x:c>
-      <x:c r="D7">
-        <x:v>294.80000000000001</x:v>
-      </x:c>
-      <x:c r="H7">
-        <x:v>60.009</x:v>
-      </x:c>
-      <x:c r="I7">
-        <x:v>277.91800000000001</x:v>
-      </x:c>
-      <x:c r="J7">
-        <x:v>1.0986</x:v>
-      </x:c>
-      <x:c r="K7">
-        <x:v>297.60000000000002</x:v>
-      </x:c>
-      <x:c r="O7">
-        <x:v>59.997</x:v>
-      </x:c>
-      <x:c r="P7">
-        <x:v>277.94099999999997</x:v>
-      </x:c>
-      <x:c r="Q7">
-        <x:v>1.1332</x:v>
-      </x:c>
-      <x:c r="R7">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="V7">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="W7">
-        <x:v>555.99000000000001</x:v>
-      </x:c>
-      <x:c r="X7">
-        <x:v>-0.0042500000000000004</x:v>
-      </x:c>
-      <x:c r="Y7">
-        <x:v>-2.3599999999999999</x:v>
-      </x:c>
-      <x:c r="Z7">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA7">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB7">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC7">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:30">
-      <x:c r="A8">
-        <x:v>3.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B8">
-        <x:v>277.97000000000003</x:v>
-      </x:c>
-      <x:c r="C8">
-        <x:v>1.0478000000000001</x:v>
-      </x:c>
-      <x:c r="D8">
-        <x:v>284.80000000000001</x:v>
-      </x:c>
-      <x:c r="H8">
-        <x:v>59.994</x:v>
-      </x:c>
-      <x:c r="I8">
-        <x:v>277.99099999999999</x:v>
-      </x:c>
-      <x:c r="J8">
-        <x:v>1.0678000000000001</x:v>
-      </x:c>
-      <x:c r="K8">
-        <x:v>288.80000000000001</x:v>
-      </x:c>
-      <x:c r="O8">
-        <x:v>60.008000000000003</x:v>
-      </x:c>
-      <x:c r="P8">
-        <x:v>277.87400000000002</x:v>
-      </x:c>
-      <x:c r="Q8">
-        <x:v>1.1000000000000001</x:v>
-      </x:c>
-      <x:c r="R8">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="V8">
-        <x:v>59.988</x:v>
-      </x:c>
-      <x:c r="W8">
-        <x:v>556.19000000000005</x:v>
-      </x:c>
-      <x:c r="X8">
-        <x:v>-0.0028200000000000003</x:v>
-      </x:c>
-      <x:c r="Y8">
-        <x:v>-1.5700000000000001</x:v>
-      </x:c>
-      <x:c r="Z8">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA8">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB8">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC8">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:30">
-      <x:c r="A9">
-        <x:v>3.5599999427795401</x:v>
-      </x:c>
-      <x:c r="B9">
-        <x:v>278.06799999999998</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>1.0245</x:v>
-      </x:c>
-      <x:c r="D9">
-        <x:v>278.30000000000001</x:v>
-      </x:c>
-      <x:c r="H9">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I9">
-        <x:v>278.214</x:v>
-      </x:c>
-      <x:c r="J9">
-        <x:v>1.0401</x:v>
-      </x:c>
-      <x:c r="K9">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="O9">
-        <x:v>59.991999999999997</x:v>
-      </x:c>
-      <x:c r="P9">
-        <x:v>277.90499999999997</x:v>
-      </x:c>
-      <x:c r="Q9">
-        <x:v>1.0768</x:v>
-      </x:c>
-      <x:c r="R9">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="V9">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="W9">
-        <x:v>556.37</x:v>
-      </x:c>
-      <x:c r="X9">
-        <x:v>-0.0030099999999999999</x:v>
-      </x:c>
-      <x:c r="Y9">
-        <x:v>-1.6699999999999999</x:v>
-      </x:c>
-      <x:c r="Z9">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA9">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB9">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC9">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:30">
-      <x:c r="A10">
-        <x:v>4.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B10">
-        <x:v>278.03199999999998</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>1.0222</x:v>
-      </x:c>
-      <x:c r="D10">
-        <x:v>277.89999999999998</x:v>
-      </x:c>
-      <x:c r="H10">
-        <x:v>59.996000000000002</x:v>
-      </x:c>
-      <x:c r="I10">
-        <x:v>277.94999999999999</x:v>
-      </x:c>
-      <x:c r="J10">
-        <x:v>1.0466</x:v>
-      </x:c>
-      <x:c r="K10">
-        <x:v>282.30000000000001</x:v>
-      </x:c>
-      <x:c r="O10">
-        <x:v>60.005000000000003</x:v>
-      </x:c>
-      <x:c r="P10">
-        <x:v>277.85899999999998</x:v>
-      </x:c>
-      <x:c r="Q10">
-        <x:v>1.0778000000000001</x:v>
-      </x:c>
-      <x:c r="R10">
-        <x:v>285.5</x:v>
-      </x:c>
-      <x:c r="V10">
-        <x:v>59.991</x:v>
-      </x:c>
-      <x:c r="W10">
-        <x:v>556.26999999999998</x:v>
-      </x:c>
-      <x:c r="X10">
-        <x:v>-0.0030599999999999999</x:v>
-      </x:c>
-      <x:c r="Y10">
-        <x:v>-1.7</x:v>
-      </x:c>
-      <x:c r="Z10">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA10">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB10">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC10">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:30">
-      <x:c r="A11">
-        <x:v>4.5599999427795401</x:v>
-      </x:c>
-      <x:c r="B11">
-        <x:v>277.93200000000002</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>0.93579999999999997</x:v>
-      </x:c>
-      <x:c r="D11">
-        <x:v>252.69999999999999</x:v>
-      </x:c>
-      <x:c r="H11">
-        <x:v>59.991999999999997</x:v>
-      </x:c>
-      <x:c r="I11">
-        <x:v>277.91800000000001</x:v>
-      </x:c>
-      <x:c r="J11">
-        <x:v>0.94869999999999999</x:v>
-      </x:c>
-      <x:c r="K11">
-        <x:v>254.69999999999999</x:v>
-      </x:c>
-      <x:c r="O11">
-        <x:v>60.003999999999998</x:v>
-      </x:c>
-      <x:c r="P11">
-        <x:v>278.17500000000001</x:v>
-      </x:c>
-      <x:c r="Q11">
-        <x:v>0.97919999999999996</x:v>
-      </x:c>
-      <x:c r="R11">
-        <x:v>256.89999999999998</x:v>
-      </x:c>
-      <x:c r="V11">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="W11">
-        <x:v>556.87</x:v>
-      </x:c>
-      <x:c r="X11">
-        <x:v>-0.0033000000000000002</x:v>
-      </x:c>
-      <x:c r="Y11">
-        <x:v>-1.8400000000000001</x:v>
-      </x:c>
-      <x:c r="Z11">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA11">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB11">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC11">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:30">
-      <x:c r="A12">
-        <x:v>5.0599999427795401</x:v>
-      </x:c>
-      <x:c r="B12">
-        <x:v>277.93900000000002</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>0.84230000000000005</x:v>
-      </x:c>
-      <x:c r="D12">
-        <x:v>225.69999999999999</x:v>
-      </x:c>
-      <x:c r="H12">
-        <x:v>60.006</x:v>
-      </x:c>
-      <x:c r="I12">
-        <x:v>277.91699999999997</x:v>
-      </x:c>
-      <x:c r="J12">
-        <x:v>0.86199999999999999</x:v>
-      </x:c>
-      <x:c r="K12">
-        <x:v>228.69999999999999</x:v>
-      </x:c>
-      <x:c r="O12">
-        <x:v>59.994999999999997</x:v>
-      </x:c>
-      <x:c r="P12">
-        <x:v>278.05700000000002</x:v>
-      </x:c>
-      <x:c r="Q12">
-        <x:v>0.89370000000000005</x:v>
-      </x:c>
-      <x:c r="R12">
-        <x:v>231.40000000000001</x:v>
-      </x:c>
-      <x:c r="V12">
-        <x:v>60.002000000000002</x:v>
-      </x:c>
-      <x:c r="W12">
-        <x:v>557.25999999999999</x:v>
-      </x:c>
-      <x:c r="X12">
-        <x:v>-0.0032299999999999995</x:v>
-      </x:c>
-      <x:c r="Y12">
-        <x:v>-1.8</x:v>
-      </x:c>
-      <x:c r="Z12">
-        <x:v>111.111111111</x:v>
-      </x:c>
-      <x:c r="AA12">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AB12">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="AC12">
-        <x:v>277.10000000000002</x:v>
-      </x:c>
-      <x:c r="AD12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet9"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.35"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <x:drawing r:id="rId1"/>
-</x:worksheet>
 </file>